--- a/Data/BK/injuries.xlsx
+++ b/Data/BK/injuries.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="1057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="1058">
   <si>
     <t>Rolando</t>
   </si>
@@ -3199,6 +3199,9 @@
   </si>
   <si>
     <t>GW40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -3526,12 +3529,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ644"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
     <col min="8" max="8" width="4.5703125" customWidth="1"/>
     <col min="9" max="9" width="5.28515625" customWidth="1"/>
@@ -3674,7 +3678,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3783,8 +3787,14 @@
       <c r="AJ2">
         <v>1</v>
       </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3893,8 +3903,14 @@
       <c r="AJ3">
         <v>1</v>
       </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4006,8 +4022,11 @@
       <c r="AK4">
         <v>2</v>
       </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -4116,8 +4135,11 @@
       <c r="AK5">
         <v>0</v>
       </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4226,8 +4248,14 @@
       <c r="AJ6">
         <v>1</v>
       </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -4333,8 +4361,14 @@
       <c r="AJ7">
         <v>1</v>
       </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -4446,8 +4480,11 @@
       <c r="AK8">
         <v>2</v>
       </c>
+      <c r="AL8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -4559,8 +4596,11 @@
       <c r="AK9">
         <v>1</v>
       </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -4669,8 +4709,14 @@
       <c r="AJ10">
         <v>0</v>
       </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -4782,8 +4828,11 @@
       <c r="AK11">
         <v>1</v>
       </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -4892,8 +4941,11 @@
       <c r="AJ12">
         <v>1</v>
       </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -5002,8 +5054,11 @@
       <c r="AJ13">
         <v>1</v>
       </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -5115,8 +5170,11 @@
       <c r="AK14">
         <v>1</v>
       </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -5228,8 +5286,11 @@
       <c r="AK15">
         <v>1</v>
       </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -5338,8 +5399,11 @@
       <c r="AJ16">
         <v>1</v>
       </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -5448,8 +5512,14 @@
       <c r="AJ17">
         <v>1</v>
       </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -5558,8 +5628,11 @@
       <c r="AJ18">
         <v>0</v>
       </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -5668,8 +5741,14 @@
       <c r="AJ19">
         <v>0</v>
       </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -5781,8 +5860,11 @@
       <c r="AK20">
         <v>1</v>
       </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -5894,8 +5976,11 @@
       <c r="AK21">
         <v>1</v>
       </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
@@ -6001,8 +6086,14 @@
       <c r="AJ22">
         <v>1</v>
       </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -6111,8 +6202,14 @@
       <c r="AJ23">
         <v>0</v>
       </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -6224,8 +6321,11 @@
       <c r="AK24">
         <v>1</v>
       </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -6334,8 +6434,14 @@
       <c r="AJ25">
         <v>1</v>
       </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -6447,8 +6553,11 @@
       <c r="AK26">
         <v>1</v>
       </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -6557,8 +6666,14 @@
       <c r="AJ27">
         <v>1</v>
       </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -6667,8 +6782,14 @@
       <c r="AJ28">
         <v>1</v>
       </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -6777,8 +6898,11 @@
       <c r="AJ29">
         <v>1</v>
       </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -6887,8 +7011,11 @@
       <c r="AJ30">
         <v>1</v>
       </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -6997,8 +7124,14 @@
       <c r="AJ31">
         <v>1</v>
       </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -7110,8 +7243,11 @@
       <c r="AK32">
         <v>1</v>
       </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>72</v>
       </c>
@@ -7220,8 +7356,11 @@
       <c r="AK33">
         <v>1</v>
       </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -7333,8 +7472,11 @@
       <c r="AK34">
         <v>1</v>
       </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -7386,8 +7528,8 @@
       <c r="Q35">
         <v>0</v>
       </c>
-      <c r="R35">
-        <v>0</v>
+      <c r="R35" t="s">
+        <v>1057</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -7446,8 +7588,11 @@
       <c r="AK35">
         <v>1</v>
       </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -7556,8 +7701,14 @@
       <c r="AJ36">
         <v>1</v>
       </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -7669,8 +7820,11 @@
       <c r="AK37">
         <v>1</v>
       </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -7782,8 +7936,11 @@
       <c r="AK38">
         <v>1</v>
       </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -7895,8 +8052,11 @@
       <c r="AK39">
         <v>1</v>
       </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>88</v>
       </c>
@@ -8005,8 +8165,14 @@
       <c r="AJ40">
         <v>1</v>
       </c>
+      <c r="AK40">
+        <v>1</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>90</v>
       </c>
@@ -8118,8 +8284,11 @@
       <c r="AK41">
         <v>1</v>
       </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -8228,8 +8397,11 @@
       <c r="AJ42">
         <v>1</v>
       </c>
+      <c r="AK42">
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -8338,8 +8510,14 @@
       <c r="AJ43">
         <v>1</v>
       </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -8451,8 +8629,11 @@
       <c r="AK44">
         <v>0</v>
       </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>98</v>
       </c>
@@ -8561,8 +8742,14 @@
       <c r="AJ45">
         <v>1</v>
       </c>
+      <c r="AK45">
+        <v>1</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>100</v>
       </c>
@@ -8671,8 +8858,14 @@
       <c r="AJ46">
         <v>1</v>
       </c>
+      <c r="AK46">
+        <v>1</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>102</v>
       </c>
@@ -8784,8 +8977,11 @@
       <c r="AK47">
         <v>1</v>
       </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -8894,8 +9090,11 @@
       <c r="AJ48">
         <v>1</v>
       </c>
+      <c r="AK48">
+        <v>1</v>
+      </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>106</v>
       </c>
@@ -9007,8 +9206,11 @@
       <c r="AK49">
         <v>1</v>
       </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>108</v>
       </c>
@@ -9120,8 +9322,11 @@
       <c r="AK50">
         <v>1</v>
       </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -9230,8 +9435,14 @@
       <c r="AJ51">
         <v>1</v>
       </c>
+      <c r="AK51">
+        <v>1</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -9340,8 +9551,11 @@
       <c r="AJ52">
         <v>1</v>
       </c>
+      <c r="AK52">
+        <v>1</v>
+      </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -9453,8 +9667,11 @@
       <c r="AK53">
         <v>1</v>
       </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>115</v>
       </c>
@@ -9566,8 +9783,11 @@
       <c r="AK54">
         <v>1</v>
       </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>117</v>
       </c>
@@ -9679,8 +9899,11 @@
       <c r="AK55">
         <v>1</v>
       </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>119</v>
       </c>
@@ -9786,8 +10009,14 @@
       <c r="AJ56">
         <v>1</v>
       </c>
+      <c r="AK56">
+        <v>1</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>120</v>
       </c>
@@ -9896,8 +10125,11 @@
       <c r="AJ57">
         <v>1</v>
       </c>
+      <c r="AK57">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>122</v>
       </c>
@@ -10009,8 +10241,11 @@
       <c r="AK58">
         <v>1</v>
       </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>124</v>
       </c>
@@ -10122,8 +10357,11 @@
       <c r="AK59">
         <v>1</v>
       </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>127</v>
       </c>
@@ -10235,8 +10473,11 @@
       <c r="AK60">
         <v>1</v>
       </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>129</v>
       </c>
@@ -10345,8 +10586,14 @@
       <c r="AJ61">
         <v>1</v>
       </c>
+      <c r="AK61">
+        <v>1</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>131</v>
       </c>
@@ -10455,8 +10702,11 @@
       <c r="AK62">
         <v>1</v>
       </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>132</v>
       </c>
@@ -10568,8 +10818,11 @@
       <c r="AK63">
         <v>1</v>
       </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>134</v>
       </c>
@@ -10681,8 +10934,11 @@
       <c r="AK64">
         <v>1</v>
       </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>136</v>
       </c>
@@ -10791,8 +11047,14 @@
       <c r="AJ65">
         <v>0</v>
       </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>138</v>
       </c>
@@ -10904,8 +11166,11 @@
       <c r="AK66">
         <v>1</v>
       </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>140</v>
       </c>
@@ -11014,8 +11279,11 @@
       <c r="AJ67">
         <v>1</v>
       </c>
+      <c r="AK67">
+        <v>1</v>
+      </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>142</v>
       </c>
@@ -11124,8 +11392,11 @@
       <c r="AK68">
         <v>1</v>
       </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>143</v>
       </c>
@@ -11237,8 +11508,11 @@
       <c r="AK69">
         <v>1</v>
       </c>
+      <c r="AL69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>145</v>
       </c>
@@ -11347,8 +11621,14 @@
       <c r="AJ70">
         <v>1</v>
       </c>
+      <c r="AK70">
+        <v>1</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>147</v>
       </c>
@@ -11460,8 +11740,11 @@
       <c r="AK71">
         <v>1</v>
       </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>149</v>
       </c>
@@ -11570,8 +11853,14 @@
       <c r="AJ72">
         <v>1</v>
       </c>
+      <c r="AK72">
+        <v>1</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>151</v>
       </c>
@@ -11683,8 +11972,11 @@
       <c r="AK73">
         <v>1</v>
       </c>
+      <c r="AL73">
+        <v>1</v>
+      </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -11793,8 +12085,14 @@
       <c r="AJ74">
         <v>1</v>
       </c>
+      <c r="AK74">
+        <v>1</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>155</v>
       </c>
@@ -11903,8 +12201,11 @@
       <c r="AK75">
         <v>1</v>
       </c>
+      <c r="AL75">
+        <v>1</v>
+      </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>156</v>
       </c>
@@ -12016,8 +12317,11 @@
       <c r="AK76">
         <v>1</v>
       </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>58</v>
       </c>
@@ -12129,8 +12433,11 @@
       <c r="AK77">
         <v>1</v>
       </c>
+      <c r="AL77">
+        <v>1</v>
+      </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>159</v>
       </c>
@@ -12242,8 +12549,11 @@
       <c r="AK78">
         <v>1</v>
       </c>
+      <c r="AL78">
+        <v>1</v>
+      </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>161</v>
       </c>
@@ -12352,8 +12662,14 @@
       <c r="AJ79">
         <v>1</v>
       </c>
+      <c r="AK79">
+        <v>1</v>
+      </c>
+      <c r="AL79">
+        <v>1</v>
+      </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>162</v>
       </c>
@@ -12465,8 +12781,11 @@
       <c r="AK80">
         <v>1</v>
       </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>164</v>
       </c>
@@ -12578,8 +12897,11 @@
       <c r="AK81">
         <v>1</v>
       </c>
+      <c r="AL81">
+        <v>1</v>
+      </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -12688,8 +13010,14 @@
       <c r="AJ82">
         <v>0</v>
       </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>167</v>
       </c>
@@ -12798,8 +13126,14 @@
       <c r="AJ83">
         <v>1</v>
       </c>
+      <c r="AK83">
+        <v>1</v>
+      </c>
+      <c r="AL83">
+        <v>1</v>
+      </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>112</v>
       </c>
@@ -12911,8 +13245,11 @@
       <c r="AK84">
         <v>1</v>
       </c>
+      <c r="AL84">
+        <v>1</v>
+      </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>170</v>
       </c>
@@ -13021,8 +13358,14 @@
       <c r="AJ85">
         <v>1</v>
       </c>
+      <c r="AK85">
+        <v>1</v>
+      </c>
+      <c r="AL85">
+        <v>1</v>
+      </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>172</v>
       </c>
@@ -13134,8 +13477,11 @@
       <c r="AK86">
         <v>1</v>
       </c>
+      <c r="AL86">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>174</v>
       </c>
@@ -13247,8 +13593,11 @@
       <c r="AK87">
         <v>1</v>
       </c>
+      <c r="AL87">
+        <v>1</v>
+      </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>176</v>
       </c>
@@ -13360,8 +13709,11 @@
       <c r="AK88">
         <v>1</v>
       </c>
+      <c r="AL88">
+        <v>1</v>
+      </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>178</v>
       </c>
@@ -13473,8 +13825,11 @@
       <c r="AK89">
         <v>1</v>
       </c>
+      <c r="AL89">
+        <v>1</v>
+      </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>180</v>
       </c>
@@ -13586,8 +13941,11 @@
       <c r="AK90">
         <v>0</v>
       </c>
+      <c r="AL90">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>182</v>
       </c>
@@ -13699,8 +14057,11 @@
       <c r="AK91">
         <v>1</v>
       </c>
+      <c r="AL91">
+        <v>1</v>
+      </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>184</v>
       </c>
@@ -13812,8 +14173,11 @@
       <c r="AK92">
         <v>1</v>
       </c>
+      <c r="AL92">
+        <v>1</v>
+      </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>186</v>
       </c>
@@ -13925,8 +14289,11 @@
       <c r="AK93">
         <v>1</v>
       </c>
+      <c r="AL93">
+        <v>1</v>
+      </c>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>188</v>
       </c>
@@ -14035,8 +14402,11 @@
       <c r="AJ94">
         <v>1</v>
       </c>
+      <c r="AK94">
+        <v>1</v>
+      </c>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>189</v>
       </c>
@@ -14145,8 +14515,14 @@
       <c r="AJ95">
         <v>1</v>
       </c>
+      <c r="AK95">
+        <v>1</v>
+      </c>
+      <c r="AL95">
+        <v>1</v>
+      </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>191</v>
       </c>
@@ -14255,8 +14631,14 @@
       <c r="AJ96">
         <v>1</v>
       </c>
+      <c r="AK96">
+        <v>1</v>
+      </c>
+      <c r="AL96">
+        <v>1</v>
+      </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>177</v>
       </c>
@@ -14365,8 +14747,11 @@
       <c r="AJ97">
         <v>1</v>
       </c>
+      <c r="AK97">
+        <v>1</v>
+      </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -14478,8 +14863,11 @@
       <c r="AK98">
         <v>1</v>
       </c>
+      <c r="AL98">
+        <v>1</v>
+      </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>195</v>
       </c>
@@ -14591,8 +14979,11 @@
       <c r="AK99">
         <v>1</v>
       </c>
+      <c r="AL99">
+        <v>1</v>
+      </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -14701,8 +15092,14 @@
       <c r="AJ100">
         <v>0</v>
       </c>
+      <c r="AK100">
+        <v>0</v>
+      </c>
+      <c r="AL100">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>199</v>
       </c>
@@ -14811,8 +15208,14 @@
       <c r="AJ101">
         <v>1</v>
       </c>
+      <c r="AK101">
+        <v>1</v>
+      </c>
+      <c r="AL101">
+        <v>1</v>
+      </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>201</v>
       </c>
@@ -14918,8 +15321,11 @@
       <c r="AJ102">
         <v>1</v>
       </c>
+      <c r="AK102">
+        <v>1</v>
+      </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>202</v>
       </c>
@@ -15031,8 +15437,11 @@
       <c r="AK103">
         <v>0</v>
       </c>
+      <c r="AL103">
+        <v>0</v>
+      </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>204</v>
       </c>
@@ -15144,8 +15553,11 @@
       <c r="AK104">
         <v>0</v>
       </c>
+      <c r="AL104">
+        <v>0</v>
+      </c>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>206</v>
       </c>
@@ -15254,8 +15666,14 @@
       <c r="AJ105">
         <v>1</v>
       </c>
+      <c r="AK105">
+        <v>1</v>
+      </c>
+      <c r="AL105">
+        <v>1</v>
+      </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>207</v>
       </c>
@@ -15364,8 +15782,11 @@
       <c r="AK106">
         <v>1</v>
       </c>
+      <c r="AL106">
+        <v>1</v>
+      </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>208</v>
       </c>
@@ -15474,8 +15895,14 @@
       <c r="AJ107">
         <v>1</v>
       </c>
+      <c r="AK107">
+        <v>1</v>
+      </c>
+      <c r="AL107">
+        <v>1</v>
+      </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>210</v>
       </c>
@@ -15581,8 +16008,14 @@
       <c r="AJ108">
         <v>1</v>
       </c>
+      <c r="AK108">
+        <v>1</v>
+      </c>
+      <c r="AL108">
+        <v>1</v>
+      </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>211</v>
       </c>
@@ -15691,8 +16124,11 @@
       <c r="AJ109">
         <v>1</v>
       </c>
+      <c r="AK109">
+        <v>1</v>
+      </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>213</v>
       </c>
@@ -15801,8 +16237,11 @@
       <c r="AJ110">
         <v>1</v>
       </c>
+      <c r="AK110">
+        <v>1</v>
+      </c>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>215</v>
       </c>
@@ -15914,8 +16353,11 @@
       <c r="AK111">
         <v>0</v>
       </c>
+      <c r="AL111">
+        <v>0</v>
+      </c>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>217</v>
       </c>
@@ -16024,8 +16466,14 @@
       <c r="AJ112">
         <v>1</v>
       </c>
+      <c r="AK112">
+        <v>1</v>
+      </c>
+      <c r="AL112">
+        <v>1</v>
+      </c>
     </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>219</v>
       </c>
@@ -16134,8 +16582,14 @@
       <c r="AJ113">
         <v>1</v>
       </c>
+      <c r="AK113">
+        <v>1</v>
+      </c>
+      <c r="AL113">
+        <v>1</v>
+      </c>
     </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>221</v>
       </c>
@@ -16244,8 +16698,11 @@
       <c r="AJ114">
         <v>1</v>
       </c>
+      <c r="AK114">
+        <v>1</v>
+      </c>
     </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>191</v>
       </c>
@@ -16357,8 +16814,11 @@
       <c r="AK115">
         <v>0</v>
       </c>
+      <c r="AL115">
+        <v>0</v>
+      </c>
     </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>81</v>
       </c>
@@ -16467,8 +16927,14 @@
       <c r="AJ116">
         <v>0</v>
       </c>
+      <c r="AK116">
+        <v>0</v>
+      </c>
+      <c r="AL116">
+        <v>1</v>
+      </c>
     </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>204</v>
       </c>
@@ -16580,8 +17046,11 @@
       <c r="AK117">
         <v>0</v>
       </c>
+      <c r="AL117">
+        <v>0</v>
+      </c>
     </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>164</v>
       </c>
@@ -16690,8 +17159,14 @@
       <c r="AJ118">
         <v>1</v>
       </c>
+      <c r="AK118">
+        <v>1</v>
+      </c>
+      <c r="AL118">
+        <v>1</v>
+      </c>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>227</v>
       </c>
@@ -16803,8 +17278,11 @@
       <c r="AK119">
         <v>1</v>
       </c>
+      <c r="AL119">
+        <v>1</v>
+      </c>
     </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>229</v>
       </c>
@@ -16916,8 +17394,11 @@
       <c r="AK120">
         <v>1</v>
       </c>
+      <c r="AL120">
+        <v>1</v>
+      </c>
     </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>230</v>
       </c>
@@ -17026,8 +17507,14 @@
       <c r="AJ121">
         <v>0</v>
       </c>
+      <c r="AK121">
+        <v>0</v>
+      </c>
+      <c r="AL121">
+        <v>0</v>
+      </c>
     </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>232</v>
       </c>
@@ -17136,8 +17623,14 @@
       <c r="AJ122">
         <v>1</v>
       </c>
+      <c r="AK122">
+        <v>1</v>
+      </c>
+      <c r="AL122">
+        <v>1</v>
+      </c>
     </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>164</v>
       </c>
@@ -17249,8 +17742,11 @@
       <c r="AK123">
         <v>1</v>
       </c>
+      <c r="AL123">
+        <v>1</v>
+      </c>
     </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>235</v>
       </c>
@@ -17356,8 +17852,14 @@
       <c r="AJ124">
         <v>1</v>
       </c>
+      <c r="AK124">
+        <v>1</v>
+      </c>
+      <c r="AL124">
+        <v>1</v>
+      </c>
     </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>236</v>
       </c>
@@ -17466,8 +17968,14 @@
       <c r="AJ125">
         <v>1</v>
       </c>
+      <c r="AK125">
+        <v>1</v>
+      </c>
+      <c r="AL125">
+        <v>1</v>
+      </c>
     </row>
-    <row r="126" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>238</v>
       </c>
@@ -17579,8 +18087,11 @@
       <c r="AK126">
         <v>1</v>
       </c>
+      <c r="AL126">
+        <v>1</v>
+      </c>
     </row>
-    <row r="127" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>240</v>
       </c>
@@ -17692,8 +18203,11 @@
       <c r="AK127">
         <v>1</v>
       </c>
+      <c r="AL127">
+        <v>1</v>
+      </c>
     </row>
-    <row r="128" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>242</v>
       </c>
@@ -17802,8 +18316,14 @@
       <c r="AJ128">
         <v>1</v>
       </c>
+      <c r="AK128">
+        <v>1</v>
+      </c>
+      <c r="AL128">
+        <v>1</v>
+      </c>
     </row>
-    <row r="129" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>244</v>
       </c>
@@ -17915,8 +18435,11 @@
       <c r="AK129">
         <v>1</v>
       </c>
+      <c r="AL129">
+        <v>1</v>
+      </c>
     </row>
-    <row r="130" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>246</v>
       </c>
@@ -18025,8 +18548,14 @@
       <c r="AJ130">
         <v>1</v>
       </c>
+      <c r="AK130">
+        <v>1</v>
+      </c>
+      <c r="AL130">
+        <v>1</v>
+      </c>
     </row>
-    <row r="131" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>230</v>
       </c>
@@ -18138,8 +18667,11 @@
       <c r="AK131">
         <v>1</v>
       </c>
+      <c r="AL131">
+        <v>1</v>
+      </c>
     </row>
-    <row r="132" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -18251,8 +18783,11 @@
       <c r="AK132">
         <v>1</v>
       </c>
+      <c r="AL132">
+        <v>1</v>
+      </c>
     </row>
-    <row r="133" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>250</v>
       </c>
@@ -18358,8 +18893,14 @@
       <c r="AJ133">
         <v>1</v>
       </c>
+      <c r="AK133">
+        <v>1</v>
+      </c>
+      <c r="AL133">
+        <v>1</v>
+      </c>
     </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>53</v>
       </c>
@@ -18471,8 +19012,11 @@
       <c r="AK134">
         <v>0</v>
       </c>
+      <c r="AL134">
+        <v>0</v>
+      </c>
     </row>
-    <row r="135" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>252</v>
       </c>
@@ -18581,8 +19125,14 @@
       <c r="AJ135">
         <v>1</v>
       </c>
+      <c r="AK135">
+        <v>1</v>
+      </c>
+      <c r="AL135">
+        <v>1</v>
+      </c>
     </row>
-    <row r="136" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>254</v>
       </c>
@@ -18694,8 +19244,11 @@
       <c r="AK136">
         <v>1</v>
       </c>
+      <c r="AL136">
+        <v>1</v>
+      </c>
     </row>
-    <row r="137" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>256</v>
       </c>
@@ -18801,8 +19354,14 @@
       <c r="AJ137">
         <v>0</v>
       </c>
+      <c r="AK137">
+        <v>0</v>
+      </c>
+      <c r="AL137">
+        <v>0</v>
+      </c>
     </row>
-    <row r="138" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>257</v>
       </c>
@@ -18908,8 +19467,14 @@
       <c r="AJ138">
         <v>1</v>
       </c>
+      <c r="AK138">
+        <v>1</v>
+      </c>
+      <c r="AL138">
+        <v>1</v>
+      </c>
     </row>
-    <row r="139" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>258</v>
       </c>
@@ -19018,8 +19583,11 @@
       <c r="AJ139">
         <v>1</v>
       </c>
+      <c r="AK139">
+        <v>1</v>
+      </c>
     </row>
-    <row r="140" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>191</v>
       </c>
@@ -19131,8 +19699,11 @@
       <c r="AK140">
         <v>1</v>
       </c>
+      <c r="AL140">
+        <v>1</v>
+      </c>
     </row>
-    <row r="141" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>117</v>
       </c>
@@ -19241,8 +19812,11 @@
       <c r="AJ141">
         <v>0</v>
       </c>
+      <c r="AK141">
+        <v>0</v>
+      </c>
     </row>
-    <row r="142" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>193</v>
       </c>
@@ -19354,8 +19928,11 @@
       <c r="AK142">
         <v>1</v>
       </c>
+      <c r="AL142">
+        <v>1</v>
+      </c>
     </row>
-    <row r="143" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>262</v>
       </c>
@@ -19464,8 +20041,14 @@
       <c r="AJ143">
         <v>1</v>
       </c>
+      <c r="AK143">
+        <v>1</v>
+      </c>
+      <c r="AL143">
+        <v>1</v>
+      </c>
     </row>
-    <row r="144" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>264</v>
       </c>
@@ -19577,8 +20160,11 @@
       <c r="AK144">
         <v>1</v>
       </c>
+      <c r="AL144">
+        <v>1</v>
+      </c>
     </row>
-    <row r="145" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>266</v>
       </c>
@@ -19687,8 +20273,14 @@
       <c r="AJ145">
         <v>1</v>
       </c>
+      <c r="AK145">
+        <v>1</v>
+      </c>
+      <c r="AL145">
+        <v>1</v>
+      </c>
     </row>
-    <row r="146" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>268</v>
       </c>
@@ -19797,8 +20389,14 @@
       <c r="AJ146">
         <v>1</v>
       </c>
+      <c r="AK146">
+        <v>1</v>
+      </c>
+      <c r="AL146">
+        <v>1</v>
+      </c>
     </row>
-    <row r="147" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>270</v>
       </c>
@@ -19910,8 +20508,11 @@
       <c r="AK147">
         <v>1</v>
       </c>
+      <c r="AL147">
+        <v>1</v>
+      </c>
     </row>
-    <row r="148" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>272</v>
       </c>
@@ -20023,8 +20624,11 @@
       <c r="AK148">
         <v>1</v>
       </c>
+      <c r="AL148">
+        <v>1</v>
+      </c>
     </row>
-    <row r="149" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>117</v>
       </c>
@@ -20136,8 +20740,11 @@
       <c r="AK149">
         <v>1</v>
       </c>
+      <c r="AL149">
+        <v>0</v>
+      </c>
     </row>
-    <row r="150" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>275</v>
       </c>
@@ -20249,8 +20856,11 @@
       <c r="AK150">
         <v>1</v>
       </c>
+      <c r="AL150">
+        <v>1</v>
+      </c>
     </row>
-    <row r="151" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>277</v>
       </c>
@@ -20359,8 +20969,14 @@
       <c r="AJ151">
         <v>1</v>
       </c>
+      <c r="AK151">
+        <v>1</v>
+      </c>
+      <c r="AL151">
+        <v>1</v>
+      </c>
     </row>
-    <row r="152" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>279</v>
       </c>
@@ -20469,8 +21085,11 @@
       <c r="AJ152">
         <v>1</v>
       </c>
+      <c r="AK152">
+        <v>1</v>
+      </c>
     </row>
-    <row r="153" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>281</v>
       </c>
@@ -20582,8 +21201,11 @@
       <c r="AK153">
         <v>1</v>
       </c>
+      <c r="AL153">
+        <v>1</v>
+      </c>
     </row>
-    <row r="154" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>283</v>
       </c>
@@ -20695,8 +21317,11 @@
       <c r="AK154">
         <v>0</v>
       </c>
+      <c r="AL154">
+        <v>0</v>
+      </c>
     </row>
-    <row r="155" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>285</v>
       </c>
@@ -20805,8 +21430,11 @@
       <c r="AJ155">
         <v>1</v>
       </c>
+      <c r="AK155">
+        <v>1</v>
+      </c>
     </row>
-    <row r="156" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>287</v>
       </c>
@@ -20915,8 +21543,14 @@
       <c r="AJ156">
         <v>1</v>
       </c>
+      <c r="AK156">
+        <v>1</v>
+      </c>
+      <c r="AL156">
+        <v>1</v>
+      </c>
     </row>
-    <row r="157" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>289</v>
       </c>
@@ -21025,8 +21659,14 @@
       <c r="AJ157">
         <v>1</v>
       </c>
+      <c r="AK157">
+        <v>1</v>
+      </c>
+      <c r="AL157">
+        <v>1</v>
+      </c>
     </row>
-    <row r="158" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>291</v>
       </c>
@@ -21135,8 +21775,14 @@
       <c r="AJ158">
         <v>1</v>
       </c>
+      <c r="AK158">
+        <v>1</v>
+      </c>
+      <c r="AL158">
+        <v>1</v>
+      </c>
     </row>
-    <row r="159" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>73</v>
       </c>
@@ -21245,8 +21891,11 @@
       <c r="AJ159">
         <v>1</v>
       </c>
+      <c r="AK159">
+        <v>1</v>
+      </c>
     </row>
-    <row r="160" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>294</v>
       </c>
@@ -21358,8 +22007,11 @@
       <c r="AK160">
         <v>1</v>
       </c>
+      <c r="AL160">
+        <v>1</v>
+      </c>
     </row>
-    <row r="161" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>296</v>
       </c>
@@ -21471,8 +22123,11 @@
       <c r="AK161">
         <v>1</v>
       </c>
+      <c r="AL161">
+        <v>1</v>
+      </c>
     </row>
-    <row r="162" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>298</v>
       </c>
@@ -21581,8 +22236,11 @@
       <c r="AJ162">
         <v>1</v>
       </c>
+      <c r="AK162">
+        <v>1</v>
+      </c>
     </row>
-    <row r="163" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>40</v>
       </c>
@@ -21691,8 +22349,14 @@
       <c r="AJ163">
         <v>1</v>
       </c>
+      <c r="AK163">
+        <v>1</v>
+      </c>
+      <c r="AL163">
+        <v>1</v>
+      </c>
     </row>
-    <row r="164" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>240</v>
       </c>
@@ -21801,8 +22465,14 @@
       <c r="AJ164">
         <v>1</v>
       </c>
+      <c r="AK164">
+        <v>1</v>
+      </c>
+      <c r="AL164">
+        <v>1</v>
+      </c>
     </row>
-    <row r="165" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>302</v>
       </c>
@@ -21914,8 +22584,11 @@
       <c r="AK165">
         <v>1</v>
       </c>
+      <c r="AL165">
+        <v>1</v>
+      </c>
     </row>
-    <row r="166" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>304</v>
       </c>
@@ -22024,8 +22697,14 @@
       <c r="AJ166">
         <v>1</v>
       </c>
+      <c r="AK166">
+        <v>1</v>
+      </c>
+      <c r="AL166">
+        <v>1</v>
+      </c>
     </row>
-    <row r="167" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>306</v>
       </c>
@@ -22137,8 +22816,11 @@
       <c r="AK167">
         <v>1</v>
       </c>
+      <c r="AL167">
+        <v>1</v>
+      </c>
     </row>
-    <row r="168" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>22</v>
       </c>
@@ -22247,8 +22929,14 @@
       <c r="AJ168">
         <v>1</v>
       </c>
+      <c r="AK168">
+        <v>1</v>
+      </c>
+      <c r="AL168">
+        <v>1</v>
+      </c>
     </row>
-    <row r="169" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>309</v>
       </c>
@@ -22354,8 +23042,14 @@
       <c r="AJ169">
         <v>1</v>
       </c>
+      <c r="AK169">
+        <v>1</v>
+      </c>
+      <c r="AL169">
+        <v>1</v>
+      </c>
     </row>
-    <row r="170" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>310</v>
       </c>
@@ -22461,8 +23155,14 @@
       <c r="AJ170">
         <v>1</v>
       </c>
+      <c r="AK170">
+        <v>1</v>
+      </c>
+      <c r="AL170">
+        <v>1</v>
+      </c>
     </row>
-    <row r="171" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>311</v>
       </c>
@@ -22574,8 +23274,11 @@
       <c r="AK171">
         <v>1</v>
       </c>
+      <c r="AL171">
+        <v>1</v>
+      </c>
     </row>
-    <row r="172" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>313</v>
       </c>
@@ -22684,8 +23387,14 @@
       <c r="AJ172">
         <v>1</v>
       </c>
+      <c r="AK172">
+        <v>1</v>
+      </c>
+      <c r="AL172">
+        <v>1</v>
+      </c>
     </row>
-    <row r="173" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>287</v>
       </c>
@@ -22794,8 +23503,14 @@
       <c r="AJ173">
         <v>1</v>
       </c>
+      <c r="AK173">
+        <v>1</v>
+      </c>
+      <c r="AL173">
+        <v>1</v>
+      </c>
     </row>
-    <row r="174" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>316</v>
       </c>
@@ -22901,8 +23616,14 @@
       <c r="AJ174">
         <v>1</v>
       </c>
+      <c r="AK174">
+        <v>1</v>
+      </c>
+      <c r="AL174">
+        <v>1</v>
+      </c>
     </row>
-    <row r="175" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>60</v>
       </c>
@@ -23011,8 +23732,11 @@
       <c r="AJ175">
         <v>1</v>
       </c>
+      <c r="AK175">
+        <v>1</v>
+      </c>
     </row>
-    <row r="176" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>318</v>
       </c>
@@ -23124,8 +23848,11 @@
       <c r="AK176">
         <v>0</v>
       </c>
+      <c r="AL176">
+        <v>1</v>
+      </c>
     </row>
-    <row r="177" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>320</v>
       </c>
@@ -23234,8 +23961,14 @@
       <c r="AJ177">
         <v>1</v>
       </c>
+      <c r="AK177">
+        <v>1</v>
+      </c>
+      <c r="AL177">
+        <v>1</v>
+      </c>
     </row>
-    <row r="178" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>322</v>
       </c>
@@ -23344,8 +24077,14 @@
       <c r="AJ178">
         <v>1</v>
       </c>
+      <c r="AK178">
+        <v>1</v>
+      </c>
+      <c r="AL178">
+        <v>1</v>
+      </c>
     </row>
-    <row r="179" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>324</v>
       </c>
@@ -23454,8 +24193,14 @@
       <c r="AJ179">
         <v>1</v>
       </c>
+      <c r="AK179">
+        <v>1</v>
+      </c>
+      <c r="AL179">
+        <v>1</v>
+      </c>
     </row>
-    <row r="180" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -23567,8 +24312,11 @@
       <c r="AK180">
         <v>1</v>
       </c>
+      <c r="AL180">
+        <v>1</v>
+      </c>
     </row>
-    <row r="181" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>140</v>
       </c>
@@ -23677,8 +24425,14 @@
       <c r="AJ181">
         <v>1</v>
       </c>
+      <c r="AK181">
+        <v>1</v>
+      </c>
+      <c r="AL181">
+        <v>1</v>
+      </c>
     </row>
-    <row r="182" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>328</v>
       </c>
@@ -23790,8 +24544,11 @@
       <c r="AK182">
         <v>1</v>
       </c>
+      <c r="AL182">
+        <v>1</v>
+      </c>
     </row>
-    <row r="183" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>330</v>
       </c>
@@ -23900,8 +24657,14 @@
       <c r="AJ183">
         <v>1</v>
       </c>
+      <c r="AK183">
+        <v>1</v>
+      </c>
+      <c r="AL183">
+        <v>0</v>
+      </c>
     </row>
-    <row r="184" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>22</v>
       </c>
@@ -24013,8 +24776,11 @@
       <c r="AK184">
         <v>1</v>
       </c>
+      <c r="AL184">
+        <v>1</v>
+      </c>
     </row>
-    <row r="185" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>333</v>
       </c>
@@ -24123,8 +24889,14 @@
       <c r="AJ185">
         <v>1</v>
       </c>
+      <c r="AK185">
+        <v>1</v>
+      </c>
+      <c r="AL185">
+        <v>1</v>
+      </c>
     </row>
-    <row r="186" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>335</v>
       </c>
@@ -24233,8 +25005,14 @@
       <c r="AJ186">
         <v>1</v>
       </c>
+      <c r="AK186">
+        <v>1</v>
+      </c>
+      <c r="AL186">
+        <v>1</v>
+      </c>
     </row>
-    <row r="187" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>337</v>
       </c>
@@ -24340,8 +25118,14 @@
       <c r="AJ187">
         <v>0</v>
       </c>
+      <c r="AK187">
+        <v>0</v>
+      </c>
+      <c r="AL187">
+        <v>2</v>
+      </c>
     </row>
-    <row r="188" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>338</v>
       </c>
@@ -24447,8 +25231,14 @@
       <c r="AJ188">
         <v>1</v>
       </c>
+      <c r="AK188">
+        <v>1</v>
+      </c>
+      <c r="AL188">
+        <v>1</v>
+      </c>
     </row>
-    <row r="189" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>81</v>
       </c>
@@ -24560,8 +25350,11 @@
       <c r="AK189">
         <v>1</v>
       </c>
+      <c r="AL189">
+        <v>1</v>
+      </c>
     </row>
-    <row r="190" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>340</v>
       </c>
@@ -24673,8 +25466,11 @@
       <c r="AK190">
         <v>1</v>
       </c>
+      <c r="AL190">
+        <v>1</v>
+      </c>
     </row>
-    <row r="191" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>342</v>
       </c>
@@ -24786,8 +25582,11 @@
       <c r="AK191">
         <v>1</v>
       </c>
+      <c r="AL191">
+        <v>1</v>
+      </c>
     </row>
-    <row r="192" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>90</v>
       </c>
@@ -24896,8 +25695,14 @@
       <c r="AJ192">
         <v>1</v>
       </c>
+      <c r="AK192">
+        <v>1</v>
+      </c>
+      <c r="AL192">
+        <v>1</v>
+      </c>
     </row>
-    <row r="193" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>345</v>
       </c>
@@ -25009,8 +25814,11 @@
       <c r="AK193">
         <v>1</v>
       </c>
+      <c r="AL193">
+        <v>1</v>
+      </c>
     </row>
-    <row r="194" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>86</v>
       </c>
@@ -25119,8 +25927,14 @@
       <c r="AJ194">
         <v>1</v>
       </c>
+      <c r="AK194">
+        <v>1</v>
+      </c>
+      <c r="AL194">
+        <v>1</v>
+      </c>
     </row>
-    <row r="195" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>184</v>
       </c>
@@ -25232,8 +26046,11 @@
       <c r="AK195">
         <v>1</v>
       </c>
+      <c r="AL195">
+        <v>1</v>
+      </c>
     </row>
-    <row r="196" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>348</v>
       </c>
@@ -25342,8 +26159,14 @@
       <c r="AJ196">
         <v>1</v>
       </c>
+      <c r="AK196">
+        <v>1</v>
+      </c>
+      <c r="AL196">
+        <v>1</v>
+      </c>
     </row>
-    <row r="197" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>350</v>
       </c>
@@ -25452,8 +26275,11 @@
       <c r="AJ197">
         <v>1</v>
       </c>
+      <c r="AK197">
+        <v>1</v>
+      </c>
     </row>
-    <row r="198" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>258</v>
       </c>
@@ -25565,8 +26391,11 @@
       <c r="AK198">
         <v>1</v>
       </c>
+      <c r="AL198">
+        <v>1</v>
+      </c>
     </row>
-    <row r="199" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>353</v>
       </c>
@@ -25678,8 +26507,11 @@
       <c r="AK199">
         <v>1</v>
       </c>
+      <c r="AL199">
+        <v>1</v>
+      </c>
     </row>
-    <row r="200" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>355</v>
       </c>
@@ -25788,8 +26620,11 @@
       <c r="AJ200">
         <v>1</v>
       </c>
+      <c r="AK200">
+        <v>1</v>
+      </c>
     </row>
-    <row r="201" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>357</v>
       </c>
@@ -25901,8 +26736,11 @@
       <c r="AK201">
         <v>1</v>
       </c>
+      <c r="AL201">
+        <v>1</v>
+      </c>
     </row>
-    <row r="202" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>120</v>
       </c>
@@ -26014,8 +26852,11 @@
       <c r="AK202">
         <v>1</v>
       </c>
+      <c r="AL202">
+        <v>1</v>
+      </c>
     </row>
-    <row r="203" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>60</v>
       </c>
@@ -26124,8 +26965,11 @@
       <c r="AJ203">
         <v>1</v>
       </c>
+      <c r="AK203">
+        <v>1</v>
+      </c>
     </row>
-    <row r="204" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>359</v>
       </c>
@@ -26234,8 +27078,14 @@
       <c r="AJ204">
         <v>1</v>
       </c>
+      <c r="AK204">
+        <v>1</v>
+      </c>
+      <c r="AL204">
+        <v>1</v>
+      </c>
     </row>
-    <row r="205" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>361</v>
       </c>
@@ -26347,8 +27197,11 @@
       <c r="AK205">
         <v>1</v>
       </c>
+      <c r="AL205">
+        <v>1</v>
+      </c>
     </row>
-    <row r="206" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>363</v>
       </c>
@@ -26457,8 +27310,11 @@
       <c r="AJ206">
         <v>1</v>
       </c>
+      <c r="AK206">
+        <v>1</v>
+      </c>
     </row>
-    <row r="207" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>365</v>
       </c>
@@ -26570,8 +27426,11 @@
       <c r="AK207">
         <v>1</v>
       </c>
+      <c r="AL207">
+        <v>1</v>
+      </c>
     </row>
-    <row r="208" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>367</v>
       </c>
@@ -26677,8 +27536,14 @@
       <c r="AJ208">
         <v>1</v>
       </c>
+      <c r="AK208">
+        <v>1</v>
+      </c>
+      <c r="AL208">
+        <v>1</v>
+      </c>
     </row>
-    <row r="209" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>368</v>
       </c>
@@ -26784,8 +27649,14 @@
       <c r="AJ209">
         <v>0</v>
       </c>
+      <c r="AK209">
+        <v>0</v>
+      </c>
+      <c r="AL209">
+        <v>1</v>
+      </c>
     </row>
-    <row r="210" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>369</v>
       </c>
@@ -26897,8 +27768,11 @@
       <c r="AK210">
         <v>1</v>
       </c>
+      <c r="AL210">
+        <v>1</v>
+      </c>
     </row>
-    <row r="211" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>371</v>
       </c>
@@ -27007,8 +27881,14 @@
       <c r="AJ211">
         <v>1</v>
       </c>
+      <c r="AK211">
+        <v>1</v>
+      </c>
+      <c r="AL211">
+        <v>1</v>
+      </c>
     </row>
-    <row r="212" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>373</v>
       </c>
@@ -27117,8 +27997,11 @@
       <c r="AJ212">
         <v>1</v>
       </c>
+      <c r="AK212">
+        <v>1</v>
+      </c>
     </row>
-    <row r="213" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>375</v>
       </c>
@@ -27230,8 +28113,11 @@
       <c r="AK213">
         <v>1</v>
       </c>
+      <c r="AL213">
+        <v>1</v>
+      </c>
     </row>
-    <row r="214" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>377</v>
       </c>
@@ -27340,8 +28226,14 @@
       <c r="AJ214">
         <v>1</v>
       </c>
+      <c r="AK214">
+        <v>1</v>
+      </c>
+      <c r="AL214">
+        <v>1</v>
+      </c>
     </row>
-    <row r="215" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>379</v>
       </c>
@@ -27453,8 +28345,11 @@
       <c r="AK215">
         <v>1</v>
       </c>
+      <c r="AL215">
+        <v>1</v>
+      </c>
     </row>
-    <row r="216" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>381</v>
       </c>
@@ -27566,8 +28461,11 @@
       <c r="AK216">
         <v>1</v>
       </c>
+      <c r="AL216">
+        <v>1</v>
+      </c>
     </row>
-    <row r="217" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>383</v>
       </c>
@@ -27679,8 +28577,11 @@
       <c r="AK217">
         <v>0</v>
       </c>
+      <c r="AL217">
+        <v>1</v>
+      </c>
     </row>
-    <row r="218" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>385</v>
       </c>
@@ -27792,8 +28693,11 @@
       <c r="AK218">
         <v>1</v>
       </c>
+      <c r="AL218">
+        <v>1</v>
+      </c>
     </row>
-    <row r="219" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>387</v>
       </c>
@@ -27902,8 +28806,14 @@
       <c r="AJ219">
         <v>1</v>
       </c>
+      <c r="AK219">
+        <v>1</v>
+      </c>
+      <c r="AL219">
+        <v>1</v>
+      </c>
     </row>
-    <row r="220" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>389</v>
       </c>
@@ -28015,8 +28925,11 @@
       <c r="AK220">
         <v>1</v>
       </c>
+      <c r="AL220">
+        <v>1</v>
+      </c>
     </row>
-    <row r="221" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>391</v>
       </c>
@@ -28128,8 +29041,11 @@
       <c r="AK221">
         <v>1</v>
       </c>
+      <c r="AL221">
+        <v>1</v>
+      </c>
     </row>
-    <row r="222" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>186</v>
       </c>
@@ -28241,8 +29157,11 @@
       <c r="AK222">
         <v>1</v>
       </c>
+      <c r="AL222">
+        <v>1</v>
+      </c>
     </row>
-    <row r="223" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>394</v>
       </c>
@@ -28351,8 +29270,11 @@
       <c r="AJ223">
         <v>1</v>
       </c>
+      <c r="AK223">
+        <v>1</v>
+      </c>
     </row>
-    <row r="224" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>313</v>
       </c>
@@ -28464,8 +29386,11 @@
       <c r="AK224">
         <v>1</v>
       </c>
+      <c r="AL224">
+        <v>1</v>
+      </c>
     </row>
-    <row r="225" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>396</v>
       </c>
@@ -28577,8 +29502,11 @@
       <c r="AK225">
         <v>1</v>
       </c>
+      <c r="AL225">
+        <v>1</v>
+      </c>
     </row>
-    <row r="226" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>56</v>
       </c>
@@ -28690,8 +29618,11 @@
       <c r="AK226">
         <v>1</v>
       </c>
+      <c r="AL226">
+        <v>1</v>
+      </c>
     </row>
-    <row r="227" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>399</v>
       </c>
@@ -28803,8 +29734,11 @@
       <c r="AK227">
         <v>1</v>
       </c>
+      <c r="AL227">
+        <v>1</v>
+      </c>
     </row>
-    <row r="228" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>401</v>
       </c>
@@ -28916,8 +29850,11 @@
       <c r="AK228">
         <v>1</v>
       </c>
+      <c r="AL228">
+        <v>1</v>
+      </c>
     </row>
-    <row r="229" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>403</v>
       </c>
@@ -29026,8 +29963,14 @@
       <c r="AJ229">
         <v>1</v>
       </c>
+      <c r="AK229">
+        <v>1</v>
+      </c>
+      <c r="AL229">
+        <v>1</v>
+      </c>
     </row>
-    <row r="230" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>405</v>
       </c>
@@ -29139,8 +30082,11 @@
       <c r="AK230">
         <v>1</v>
       </c>
+      <c r="AL230">
+        <v>1</v>
+      </c>
     </row>
-    <row r="231" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>407</v>
       </c>
@@ -29249,8 +30195,14 @@
       <c r="AJ231">
         <v>1</v>
       </c>
+      <c r="AK231">
+        <v>1</v>
+      </c>
+      <c r="AL231">
+        <v>1</v>
+      </c>
     </row>
-    <row r="232" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>409</v>
       </c>
@@ -29359,8 +30311,14 @@
       <c r="AJ232">
         <v>1</v>
       </c>
+      <c r="AK232">
+        <v>1</v>
+      </c>
+      <c r="AL232">
+        <v>1</v>
+      </c>
     </row>
-    <row r="233" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>258</v>
       </c>
@@ -29469,8 +30427,11 @@
       <c r="AJ233">
         <v>1</v>
       </c>
+      <c r="AK233">
+        <v>1</v>
+      </c>
     </row>
-    <row r="234" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>392</v>
       </c>
@@ -29579,8 +30540,14 @@
       <c r="AJ234">
         <v>1</v>
       </c>
+      <c r="AK234">
+        <v>1</v>
+      </c>
+      <c r="AL234">
+        <v>1</v>
+      </c>
     </row>
-    <row r="235" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>413</v>
       </c>
@@ -29692,8 +30659,11 @@
       <c r="AK235">
         <v>1</v>
       </c>
+      <c r="AL235">
+        <v>1</v>
+      </c>
     </row>
-    <row r="236" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>33</v>
       </c>
@@ -29802,8 +30772,14 @@
       <c r="AJ236">
         <v>1</v>
       </c>
+      <c r="AK236">
+        <v>1</v>
+      </c>
+      <c r="AL236">
+        <v>1</v>
+      </c>
     </row>
-    <row r="237" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>416</v>
       </c>
@@ -29915,8 +30891,11 @@
       <c r="AK237">
         <v>1</v>
       </c>
+      <c r="AL237">
+        <v>1</v>
+      </c>
     </row>
-    <row r="238" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>418</v>
       </c>
@@ -30025,8 +31004,14 @@
       <c r="AJ238">
         <v>1</v>
       </c>
+      <c r="AK238">
+        <v>1</v>
+      </c>
+      <c r="AL238">
+        <v>1</v>
+      </c>
     </row>
-    <row r="239" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>420</v>
       </c>
@@ -30135,8 +31120,14 @@
       <c r="AJ239">
         <v>1</v>
       </c>
+      <c r="AK239">
+        <v>1</v>
+      </c>
+      <c r="AL239">
+        <v>1</v>
+      </c>
     </row>
-    <row r="240" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>191</v>
       </c>
@@ -30248,8 +31239,11 @@
       <c r="AK240">
         <v>1</v>
       </c>
+      <c r="AL240">
+        <v>1</v>
+      </c>
     </row>
-    <row r="241" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>184</v>
       </c>
@@ -30361,8 +31355,11 @@
       <c r="AK241">
         <v>0</v>
       </c>
+      <c r="AL241">
+        <v>0</v>
+      </c>
     </row>
-    <row r="242" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>424</v>
       </c>
@@ -30474,8 +31471,11 @@
       <c r="AK242">
         <v>1</v>
       </c>
+      <c r="AL242">
+        <v>1</v>
+      </c>
     </row>
-    <row r="243" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>426</v>
       </c>
@@ -30587,8 +31587,11 @@
       <c r="AK243">
         <v>1</v>
       </c>
+      <c r="AL243">
+        <v>1</v>
+      </c>
     </row>
-    <row r="244" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>428</v>
       </c>
@@ -30700,8 +31703,11 @@
       <c r="AK244">
         <v>1</v>
       </c>
+      <c r="AL244">
+        <v>1</v>
+      </c>
     </row>
-    <row r="245" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>430</v>
       </c>
@@ -30813,8 +31819,11 @@
       <c r="AK245">
         <v>1</v>
       </c>
+      <c r="AL245">
+        <v>1</v>
+      </c>
     </row>
-    <row r="246" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>432</v>
       </c>
@@ -30926,8 +31935,11 @@
       <c r="AK246">
         <v>1</v>
       </c>
+      <c r="AL246">
+        <v>1</v>
+      </c>
     </row>
-    <row r="247" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>434</v>
       </c>
@@ -31039,8 +32051,11 @@
       <c r="AK247">
         <v>1</v>
       </c>
+      <c r="AL247">
+        <v>1</v>
+      </c>
     </row>
-    <row r="248" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>436</v>
       </c>
@@ -31152,8 +32167,11 @@
       <c r="AK248">
         <v>1</v>
       </c>
+      <c r="AL248">
+        <v>1</v>
+      </c>
     </row>
-    <row r="249" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>438</v>
       </c>
@@ -31262,8 +32280,11 @@
       <c r="AJ249">
         <v>1</v>
       </c>
+      <c r="AK249">
+        <v>1</v>
+      </c>
     </row>
-    <row r="250" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>440</v>
       </c>
@@ -31375,8 +32396,11 @@
       <c r="AK250">
         <v>1</v>
       </c>
+      <c r="AL250">
+        <v>1</v>
+      </c>
     </row>
-    <row r="251" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>442</v>
       </c>
@@ -31485,8 +32509,11 @@
       <c r="AJ251">
         <v>1</v>
       </c>
+      <c r="AK251">
+        <v>1</v>
+      </c>
     </row>
-    <row r="252" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>444</v>
       </c>
@@ -31595,8 +32622,14 @@
       <c r="AJ252">
         <v>1</v>
       </c>
+      <c r="AK252">
+        <v>1</v>
+      </c>
+      <c r="AL252">
+        <v>1</v>
+      </c>
     </row>
-    <row r="253" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>348</v>
       </c>
@@ -31708,8 +32741,11 @@
       <c r="AK253">
         <v>1</v>
       </c>
+      <c r="AL253">
+        <v>1</v>
+      </c>
     </row>
-    <row r="254" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>447</v>
       </c>
@@ -31821,8 +32857,11 @@
       <c r="AK254">
         <v>0</v>
       </c>
+      <c r="AL254">
+        <v>0</v>
+      </c>
     </row>
-    <row r="255" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>449</v>
       </c>
@@ -31934,8 +32973,11 @@
       <c r="AK255">
         <v>1</v>
       </c>
+      <c r="AL255">
+        <v>1</v>
+      </c>
     </row>
-    <row r="256" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>451</v>
       </c>
@@ -32044,8 +33086,14 @@
       <c r="AJ256">
         <v>1</v>
       </c>
+      <c r="AK256">
+        <v>1</v>
+      </c>
+      <c r="AL256">
+        <v>1</v>
+      </c>
     </row>
-    <row r="257" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>453</v>
       </c>
@@ -32157,8 +33205,11 @@
       <c r="AK257">
         <v>1</v>
       </c>
+      <c r="AL257">
+        <v>1</v>
+      </c>
     </row>
-    <row r="258" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>428</v>
       </c>
@@ -32267,8 +33318,14 @@
       <c r="AJ258">
         <v>1</v>
       </c>
+      <c r="AK258">
+        <v>1</v>
+      </c>
+      <c r="AL258">
+        <v>1</v>
+      </c>
     </row>
-    <row r="259" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>456</v>
       </c>
@@ -32380,8 +33437,11 @@
       <c r="AK259">
         <v>1</v>
       </c>
+      <c r="AL259">
+        <v>1</v>
+      </c>
     </row>
-    <row r="260" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>313</v>
       </c>
@@ -32490,8 +33550,11 @@
       <c r="AJ260">
         <v>1</v>
       </c>
+      <c r="AK260">
+        <v>1</v>
+      </c>
     </row>
-    <row r="261" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>316</v>
       </c>
@@ -32603,8 +33666,11 @@
       <c r="AK261">
         <v>1</v>
       </c>
+      <c r="AL261">
+        <v>1</v>
+      </c>
     </row>
-    <row r="262" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>460</v>
       </c>
@@ -32716,8 +33782,11 @@
       <c r="AK262">
         <v>1</v>
       </c>
+      <c r="AL262">
+        <v>1</v>
+      </c>
     </row>
-    <row r="263" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>462</v>
       </c>
@@ -32826,8 +33895,11 @@
       <c r="AJ263">
         <v>0</v>
       </c>
+      <c r="AK263">
+        <v>0</v>
+      </c>
     </row>
-    <row r="264" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>464</v>
       </c>
@@ -32939,8 +34011,11 @@
       <c r="AK264">
         <v>1</v>
       </c>
+      <c r="AL264">
+        <v>1</v>
+      </c>
     </row>
-    <row r="265" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>466</v>
       </c>
@@ -33049,8 +34124,11 @@
       <c r="AJ265">
         <v>1</v>
       </c>
+      <c r="AK265">
+        <v>1</v>
+      </c>
     </row>
-    <row r="266" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>468</v>
       </c>
@@ -33162,8 +34240,11 @@
       <c r="AK266">
         <v>1</v>
       </c>
+      <c r="AL266">
+        <v>1</v>
+      </c>
     </row>
-    <row r="267" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>191</v>
       </c>
@@ -33275,8 +34356,11 @@
       <c r="AK267">
         <v>1</v>
       </c>
+      <c r="AL267">
+        <v>1</v>
+      </c>
     </row>
-    <row r="268" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>471</v>
       </c>
@@ -33388,8 +34472,11 @@
       <c r="AK268">
         <v>1</v>
       </c>
+      <c r="AL268">
+        <v>1</v>
+      </c>
     </row>
-    <row r="269" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>473</v>
       </c>
@@ -33501,8 +34588,11 @@
       <c r="AK269">
         <v>1</v>
       </c>
+      <c r="AL269">
+        <v>1</v>
+      </c>
     </row>
-    <row r="270" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>475</v>
       </c>
@@ -33611,8 +34701,14 @@
       <c r="AJ270">
         <v>1</v>
       </c>
+      <c r="AK270">
+        <v>1</v>
+      </c>
+      <c r="AL270">
+        <v>1</v>
+      </c>
     </row>
-    <row r="271" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
         <v>477</v>
       </c>
@@ -33721,8 +34817,11 @@
       <c r="AK271">
         <v>1</v>
       </c>
+      <c r="AL271">
+        <v>1</v>
+      </c>
     </row>
-    <row r="272" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>478</v>
       </c>
@@ -33834,8 +34933,11 @@
       <c r="AK272">
         <v>1</v>
       </c>
+      <c r="AL272">
+        <v>1</v>
+      </c>
     </row>
-    <row r="273" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>86</v>
       </c>
@@ -33947,8 +35049,11 @@
       <c r="AK273">
         <v>1</v>
       </c>
+      <c r="AL273">
+        <v>1</v>
+      </c>
     </row>
-    <row r="274" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>481</v>
       </c>
@@ -34057,8 +35162,11 @@
       <c r="AJ274">
         <v>1</v>
       </c>
+      <c r="AK274">
+        <v>1</v>
+      </c>
     </row>
-    <row r="275" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>483</v>
       </c>
@@ -34167,8 +35275,11 @@
       <c r="AJ275">
         <v>0</v>
       </c>
+      <c r="AK275">
+        <v>0</v>
+      </c>
     </row>
-    <row r="276" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>98</v>
       </c>
@@ -34280,8 +35391,11 @@
       <c r="AK276">
         <v>1</v>
       </c>
+      <c r="AL276">
+        <v>1</v>
+      </c>
     </row>
-    <row r="277" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>485</v>
       </c>
@@ -34393,8 +35507,11 @@
       <c r="AK277">
         <v>1</v>
       </c>
+      <c r="AL277">
+        <v>1</v>
+      </c>
     </row>
-    <row r="278" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>487</v>
       </c>
@@ -34503,8 +35620,11 @@
       <c r="AJ278">
         <v>1</v>
       </c>
+      <c r="AK278">
+        <v>1</v>
+      </c>
     </row>
-    <row r="279" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>489</v>
       </c>
@@ -34613,8 +35733,14 @@
       <c r="AJ279">
         <v>1</v>
       </c>
+      <c r="AK279">
+        <v>1</v>
+      </c>
+      <c r="AL279">
+        <v>1</v>
+      </c>
     </row>
-    <row r="280" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
         <v>491</v>
       </c>
@@ -34723,8 +35849,11 @@
       <c r="AK280">
         <v>0</v>
       </c>
+      <c r="AL280">
+        <v>2</v>
+      </c>
     </row>
-    <row r="281" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
         <v>492</v>
       </c>
@@ -34830,8 +35959,14 @@
       <c r="AJ281">
         <v>1</v>
       </c>
+      <c r="AK281">
+        <v>1</v>
+      </c>
+      <c r="AL281">
+        <v>1</v>
+      </c>
     </row>
-    <row r="282" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>493</v>
       </c>
@@ -34937,8 +36072,14 @@
       <c r="AJ282">
         <v>1</v>
       </c>
+      <c r="AK282">
+        <v>1</v>
+      </c>
+      <c r="AL282">
+        <v>1</v>
+      </c>
     </row>
-    <row r="283" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
         <v>494</v>
       </c>
@@ -35047,8 +36188,11 @@
       <c r="AK283">
         <v>1</v>
       </c>
+      <c r="AL283">
+        <v>1</v>
+      </c>
     </row>
-    <row r="284" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>258</v>
       </c>
@@ -35157,8 +36301,14 @@
       <c r="AJ284">
         <v>1</v>
       </c>
+      <c r="AK284">
+        <v>1</v>
+      </c>
+      <c r="AL284">
+        <v>1</v>
+      </c>
     </row>
-    <row r="285" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>496</v>
       </c>
@@ -35270,8 +36420,11 @@
       <c r="AK285">
         <v>1</v>
       </c>
+      <c r="AL285">
+        <v>1</v>
+      </c>
     </row>
-    <row r="286" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>497</v>
       </c>
@@ -35383,8 +36536,11 @@
       <c r="AK286">
         <v>1</v>
       </c>
+      <c r="AL286">
+        <v>1</v>
+      </c>
     </row>
-    <row r="287" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>86</v>
       </c>
@@ -35496,8 +36652,11 @@
       <c r="AK287">
         <v>1</v>
       </c>
+      <c r="AL287">
+        <v>1</v>
+      </c>
     </row>
-    <row r="288" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
         <v>499</v>
       </c>
@@ -35603,8 +36762,14 @@
       <c r="AJ288">
         <v>1</v>
       </c>
+      <c r="AK288">
+        <v>1</v>
+      </c>
+      <c r="AL288">
+        <v>1</v>
+      </c>
     </row>
-    <row r="289" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
         <v>500</v>
       </c>
@@ -35710,8 +36875,14 @@
       <c r="AJ289">
         <v>1</v>
       </c>
+      <c r="AK289">
+        <v>1</v>
+      </c>
+      <c r="AL289">
+        <v>1</v>
+      </c>
     </row>
-    <row r="290" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>60</v>
       </c>
@@ -35823,8 +36994,11 @@
       <c r="AK290">
         <v>1</v>
       </c>
+      <c r="AL290">
+        <v>1</v>
+      </c>
     </row>
-    <row r="291" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>502</v>
       </c>
@@ -35936,8 +37110,11 @@
       <c r="AK291">
         <v>0</v>
       </c>
+      <c r="AL291">
+        <v>0</v>
+      </c>
     </row>
-    <row r="292" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>504</v>
       </c>
@@ -36049,8 +37226,11 @@
       <c r="AK292">
         <v>0</v>
       </c>
+      <c r="AL292">
+        <v>0</v>
+      </c>
     </row>
-    <row r="293" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>506</v>
       </c>
@@ -36162,8 +37342,11 @@
       <c r="AK293">
         <v>1</v>
       </c>
+      <c r="AL293">
+        <v>1</v>
+      </c>
     </row>
-    <row r="294" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>58</v>
       </c>
@@ -36272,8 +37455,11 @@
       <c r="AJ294">
         <v>1</v>
       </c>
+      <c r="AK294">
+        <v>1</v>
+      </c>
     </row>
-    <row r="295" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>509</v>
       </c>
@@ -36382,8 +37568,14 @@
       <c r="AJ295">
         <v>1</v>
       </c>
+      <c r="AK295">
+        <v>1</v>
+      </c>
+      <c r="AL295">
+        <v>1</v>
+      </c>
     </row>
-    <row r="296" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>511</v>
       </c>
@@ -36495,8 +37687,11 @@
       <c r="AK296">
         <v>1</v>
       </c>
+      <c r="AL296">
+        <v>1</v>
+      </c>
     </row>
-    <row r="297" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>513</v>
       </c>
@@ -36608,8 +37803,11 @@
       <c r="AK297">
         <v>1</v>
       </c>
+      <c r="AL297">
+        <v>1</v>
+      </c>
     </row>
-    <row r="298" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>515</v>
       </c>
@@ -36721,8 +37919,11 @@
       <c r="AK298">
         <v>1</v>
       </c>
+      <c r="AL298">
+        <v>1</v>
+      </c>
     </row>
-    <row r="299" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>184</v>
       </c>
@@ -36834,8 +38035,11 @@
       <c r="AK299">
         <v>1</v>
       </c>
+      <c r="AL299">
+        <v>1</v>
+      </c>
     </row>
-    <row r="300" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>240</v>
       </c>
@@ -36947,8 +38151,11 @@
       <c r="AK300">
         <v>1</v>
       </c>
+      <c r="AL300">
+        <v>1</v>
+      </c>
     </row>
-    <row r="301" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="1" t="s">
         <v>519</v>
       </c>
@@ -37054,8 +38261,14 @@
       <c r="AJ301">
         <v>1</v>
       </c>
+      <c r="AK301">
+        <v>1</v>
+      </c>
+      <c r="AL301">
+        <v>1</v>
+      </c>
     </row>
-    <row r="302" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>520</v>
       </c>
@@ -37167,8 +38380,11 @@
       <c r="AK302">
         <v>1</v>
       </c>
+      <c r="AL302">
+        <v>1</v>
+      </c>
     </row>
-    <row r="303" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>522</v>
       </c>
@@ -37274,8 +38490,14 @@
       <c r="AJ303">
         <v>1</v>
       </c>
+      <c r="AK303">
+        <v>1</v>
+      </c>
+      <c r="AL303">
+        <v>1</v>
+      </c>
     </row>
-    <row r="304" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
         <v>523</v>
       </c>
@@ -37384,8 +38606,11 @@
       <c r="AK304">
         <v>1</v>
       </c>
+      <c r="AL304">
+        <v>1</v>
+      </c>
     </row>
-    <row r="305" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>189</v>
       </c>
@@ -37494,8 +38719,14 @@
       <c r="AJ305">
         <v>1</v>
       </c>
+      <c r="AK305">
+        <v>1</v>
+      </c>
+      <c r="AL305">
+        <v>1</v>
+      </c>
     </row>
-    <row r="306" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>525</v>
       </c>
@@ -37607,8 +38838,11 @@
       <c r="AK306">
         <v>1</v>
       </c>
+      <c r="AL306">
+        <v>1</v>
+      </c>
     </row>
-    <row r="307" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>473</v>
       </c>
@@ -37717,8 +38951,14 @@
       <c r="AJ307">
         <v>1</v>
       </c>
+      <c r="AK307">
+        <v>1</v>
+      </c>
+      <c r="AL307">
+        <v>1</v>
+      </c>
     </row>
-    <row r="308" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>527</v>
       </c>
@@ -37830,8 +39070,11 @@
       <c r="AK308">
         <v>1</v>
       </c>
+      <c r="AL308">
+        <v>1</v>
+      </c>
     </row>
-    <row r="309" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>529</v>
       </c>
@@ -37943,8 +39186,11 @@
       <c r="AK309">
         <v>1</v>
       </c>
+      <c r="AL309">
+        <v>1</v>
+      </c>
     </row>
-    <row r="310" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>531</v>
       </c>
@@ -38056,8 +39302,11 @@
       <c r="AK310">
         <v>1</v>
       </c>
+      <c r="AL310">
+        <v>1</v>
+      </c>
     </row>
-    <row r="311" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>533</v>
       </c>
@@ -38169,8 +39418,11 @@
       <c r="AK311">
         <v>1</v>
       </c>
+      <c r="AL311">
+        <v>1</v>
+      </c>
     </row>
-    <row r="312" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>298</v>
       </c>
@@ -38279,8 +39531,14 @@
       <c r="AJ312">
         <v>1</v>
       </c>
+      <c r="AK312">
+        <v>1</v>
+      </c>
+      <c r="AL312">
+        <v>1</v>
+      </c>
     </row>
-    <row r="313" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>409</v>
       </c>
@@ -38389,8 +39647,14 @@
       <c r="AJ313">
         <v>1</v>
       </c>
+      <c r="AK313">
+        <v>1</v>
+      </c>
+      <c r="AL313">
+        <v>1</v>
+      </c>
     </row>
-    <row r="314" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>487</v>
       </c>
@@ -38499,8 +39763,14 @@
       <c r="AJ314">
         <v>1</v>
       </c>
+      <c r="AK314">
+        <v>1</v>
+      </c>
+      <c r="AL314">
+        <v>1</v>
+      </c>
     </row>
-    <row r="315" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>538</v>
       </c>
@@ -38612,8 +39882,11 @@
       <c r="AK315">
         <v>1</v>
       </c>
+      <c r="AL315">
+        <v>1</v>
+      </c>
     </row>
-    <row r="316" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>281</v>
       </c>
@@ -38722,8 +39995,14 @@
       <c r="AJ316">
         <v>1</v>
       </c>
+      <c r="AK316">
+        <v>1</v>
+      </c>
+      <c r="AL316">
+        <v>1</v>
+      </c>
     </row>
-    <row r="317" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>541</v>
       </c>
@@ -38832,8 +40111,14 @@
       <c r="AJ317">
         <v>1</v>
       </c>
+      <c r="AK317">
+        <v>1</v>
+      </c>
+      <c r="AL317">
+        <v>1</v>
+      </c>
     </row>
-    <row r="318" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>543</v>
       </c>
@@ -38945,8 +40230,11 @@
       <c r="AK318">
         <v>1</v>
       </c>
+      <c r="AL318">
+        <v>1</v>
+      </c>
     </row>
-    <row r="319" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>545</v>
       </c>
@@ -39058,8 +40346,11 @@
       <c r="AK319">
         <v>1</v>
       </c>
+      <c r="AL319">
+        <v>1</v>
+      </c>
     </row>
-    <row r="320" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>547</v>
       </c>
@@ -39168,8 +40459,14 @@
       <c r="AJ320">
         <v>1</v>
       </c>
+      <c r="AK320">
+        <v>1</v>
+      </c>
+      <c r="AL320">
+        <v>1</v>
+      </c>
     </row>
-    <row r="321" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>549</v>
       </c>
@@ -39281,8 +40578,11 @@
       <c r="AK321">
         <v>1</v>
       </c>
+      <c r="AL321">
+        <v>1</v>
+      </c>
     </row>
-    <row r="322" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>7</v>
       </c>
@@ -39394,8 +40694,11 @@
       <c r="AK322">
         <v>0</v>
       </c>
+      <c r="AL322">
+        <v>0</v>
+      </c>
     </row>
-    <row r="323" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>552</v>
       </c>
@@ -39504,8 +40807,11 @@
       <c r="AJ323">
         <v>1</v>
       </c>
+      <c r="AK323">
+        <v>1</v>
+      </c>
     </row>
-    <row r="324" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>554</v>
       </c>
@@ -39614,8 +40920,14 @@
       <c r="AJ324">
         <v>1</v>
       </c>
+      <c r="AK324">
+        <v>1</v>
+      </c>
+      <c r="AL324">
+        <v>1</v>
+      </c>
     </row>
-    <row r="325" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>556</v>
       </c>
@@ -39724,8 +41036,14 @@
       <c r="AJ325">
         <v>1</v>
       </c>
+      <c r="AK325">
+        <v>1</v>
+      </c>
+      <c r="AL325">
+        <v>1</v>
+      </c>
     </row>
-    <row r="326" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>558</v>
       </c>
@@ -39834,8 +41152,14 @@
       <c r="AJ326">
         <v>1</v>
       </c>
+      <c r="AK326">
+        <v>1</v>
+      </c>
+      <c r="AL326">
+        <v>1</v>
+      </c>
     </row>
-    <row r="327" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
         <v>560</v>
       </c>
@@ -39944,8 +41268,11 @@
       <c r="AK327">
         <v>1</v>
       </c>
+      <c r="AL327">
+        <v>1</v>
+      </c>
     </row>
-    <row r="328" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -40057,8 +41384,11 @@
       <c r="AK328">
         <v>1</v>
       </c>
+      <c r="AL328">
+        <v>1</v>
+      </c>
     </row>
-    <row r="329" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>562</v>
       </c>
@@ -40167,8 +41497,14 @@
       <c r="AJ329">
         <v>1</v>
       </c>
+      <c r="AK329">
+        <v>1</v>
+      </c>
+      <c r="AL329">
+        <v>1</v>
+      </c>
     </row>
-    <row r="330" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>440</v>
       </c>
@@ -40280,8 +41616,11 @@
       <c r="AK330">
         <v>1</v>
       </c>
+      <c r="AL330">
+        <v>1</v>
+      </c>
     </row>
-    <row r="331" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>565</v>
       </c>
@@ -40390,8 +41729,11 @@
       <c r="AJ331">
         <v>1</v>
       </c>
+      <c r="AK331">
+        <v>1</v>
+      </c>
     </row>
-    <row r="332" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>242</v>
       </c>
@@ -40503,8 +41845,11 @@
       <c r="AK332">
         <v>1</v>
       </c>
+      <c r="AL332">
+        <v>1</v>
+      </c>
     </row>
-    <row r="333" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
         <v>568</v>
       </c>
@@ -40613,8 +41958,11 @@
       <c r="AK333">
         <v>1</v>
       </c>
+      <c r="AL333">
+        <v>1</v>
+      </c>
     </row>
-    <row r="334" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>569</v>
       </c>
@@ -40726,8 +42074,11 @@
       <c r="AK334">
         <v>1</v>
       </c>
+      <c r="AL334">
+        <v>1</v>
+      </c>
     </row>
-    <row r="335" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>571</v>
       </c>
@@ -40839,8 +42190,11 @@
       <c r="AK335">
         <v>1</v>
       </c>
+      <c r="AL335">
+        <v>1</v>
+      </c>
     </row>
-    <row r="336" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>573</v>
       </c>
@@ -40952,8 +42306,11 @@
       <c r="AK336">
         <v>1</v>
       </c>
+      <c r="AL336">
+        <v>1</v>
+      </c>
     </row>
-    <row r="337" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>575</v>
       </c>
@@ -41065,8 +42422,11 @@
       <c r="AK337">
         <v>1</v>
       </c>
+      <c r="AL337">
+        <v>1</v>
+      </c>
     </row>
-    <row r="338" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>338</v>
       </c>
@@ -41175,8 +42535,11 @@
       <c r="AJ338">
         <v>1</v>
       </c>
+      <c r="AK338">
+        <v>1</v>
+      </c>
     </row>
-    <row r="339" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>578</v>
       </c>
@@ -41285,8 +42648,11 @@
       <c r="AJ339">
         <v>1</v>
       </c>
+      <c r="AK339">
+        <v>1</v>
+      </c>
     </row>
-    <row r="340" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>580</v>
       </c>
@@ -41398,8 +42764,11 @@
       <c r="AK340">
         <v>1</v>
       </c>
+      <c r="AL340">
+        <v>1</v>
+      </c>
     </row>
-    <row r="341" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>582</v>
       </c>
@@ -41511,8 +42880,11 @@
       <c r="AK341">
         <v>1</v>
       </c>
+      <c r="AL341">
+        <v>1</v>
+      </c>
     </row>
-    <row r="342" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>584</v>
       </c>
@@ -41624,8 +42996,11 @@
       <c r="AK342">
         <v>1</v>
       </c>
+      <c r="AL342">
+        <v>1</v>
+      </c>
     </row>
-    <row r="343" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>33</v>
       </c>
@@ -41737,8 +43112,11 @@
       <c r="AK343">
         <v>1</v>
       </c>
+      <c r="AL343">
+        <v>1</v>
+      </c>
     </row>
-    <row r="344" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>262</v>
       </c>
@@ -41850,8 +43228,11 @@
       <c r="AK344">
         <v>1</v>
       </c>
+      <c r="AL344">
+        <v>1</v>
+      </c>
     </row>
-    <row r="345" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>302</v>
       </c>
@@ -41960,8 +43341,11 @@
       <c r="AJ345">
         <v>1</v>
       </c>
+      <c r="AK345">
+        <v>1</v>
+      </c>
     </row>
-    <row r="346" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>588</v>
       </c>
@@ -42073,8 +43457,11 @@
       <c r="AK346">
         <v>1</v>
       </c>
+      <c r="AL346">
+        <v>1</v>
+      </c>
     </row>
-    <row r="347" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>590</v>
       </c>
@@ -42186,8 +43573,11 @@
       <c r="AK347">
         <v>1</v>
       </c>
+      <c r="AL347">
+        <v>1</v>
+      </c>
     </row>
-    <row r="348" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>592</v>
       </c>
@@ -42299,8 +43689,11 @@
       <c r="AK348">
         <v>1</v>
       </c>
+      <c r="AL348">
+        <v>1</v>
+      </c>
     </row>
-    <row r="349" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>156</v>
       </c>
@@ -42412,8 +43805,11 @@
       <c r="AK349">
         <v>1</v>
       </c>
+      <c r="AL349">
+        <v>1</v>
+      </c>
     </row>
-    <row r="350" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>595</v>
       </c>
@@ -42525,8 +43921,11 @@
       <c r="AK350">
         <v>1</v>
       </c>
+      <c r="AL350">
+        <v>1</v>
+      </c>
     </row>
-    <row r="351" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>597</v>
       </c>
@@ -42638,8 +44037,11 @@
       <c r="AK351">
         <v>1</v>
       </c>
+      <c r="AL351">
+        <v>1</v>
+      </c>
     </row>
-    <row r="352" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
         <v>599</v>
       </c>
@@ -42745,8 +44147,11 @@
       <c r="AJ352">
         <v>1</v>
       </c>
+      <c r="AK352">
+        <v>1</v>
+      </c>
     </row>
-    <row r="353" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>600</v>
       </c>
@@ -42858,8 +44263,11 @@
       <c r="AK353">
         <v>1</v>
       </c>
+      <c r="AL353">
+        <v>1</v>
+      </c>
     </row>
-    <row r="354" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>602</v>
       </c>
@@ -42971,8 +44379,11 @@
       <c r="AK354">
         <v>1</v>
       </c>
+      <c r="AL354">
+        <v>1</v>
+      </c>
     </row>
-    <row r="355" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>604</v>
       </c>
@@ -43084,8 +44495,11 @@
       <c r="AK355">
         <v>1</v>
       </c>
+      <c r="AL355">
+        <v>1</v>
+      </c>
     </row>
-    <row r="356" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>162</v>
       </c>
@@ -43194,8 +44608,14 @@
       <c r="AJ356">
         <v>1</v>
       </c>
+      <c r="AK356">
+        <v>1</v>
+      </c>
+      <c r="AL356">
+        <v>1</v>
+      </c>
     </row>
-    <row r="357" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>607</v>
       </c>
@@ -43307,8 +44727,11 @@
       <c r="AK357">
         <v>1</v>
       </c>
+      <c r="AL357">
+        <v>1</v>
+      </c>
     </row>
-    <row r="358" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>58</v>
       </c>
@@ -43417,8 +44840,11 @@
       <c r="AJ358">
         <v>1</v>
       </c>
+      <c r="AK358">
+        <v>1</v>
+      </c>
     </row>
-    <row r="359" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>379</v>
       </c>
@@ -43530,8 +44956,11 @@
       <c r="AK359">
         <v>1</v>
       </c>
+      <c r="AL359">
+        <v>1</v>
+      </c>
     </row>
-    <row r="360" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>611</v>
       </c>
@@ -43640,8 +45069,11 @@
       <c r="AJ360">
         <v>1</v>
       </c>
+      <c r="AK360">
+        <v>1</v>
+      </c>
     </row>
-    <row r="361" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>613</v>
       </c>
@@ -43750,8 +45182,14 @@
       <c r="AJ361">
         <v>1</v>
       </c>
+      <c r="AK361">
+        <v>1</v>
+      </c>
+      <c r="AL361">
+        <v>1</v>
+      </c>
     </row>
-    <row r="362" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>615</v>
       </c>
@@ -43860,8 +45298,14 @@
       <c r="AJ362">
         <v>1</v>
       </c>
+      <c r="AK362">
+        <v>1</v>
+      </c>
+      <c r="AL362">
+        <v>1</v>
+      </c>
     </row>
-    <row r="363" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>53</v>
       </c>
@@ -43973,8 +45417,11 @@
       <c r="AK363">
         <v>1</v>
       </c>
+      <c r="AL363">
+        <v>1</v>
+      </c>
     </row>
-    <row r="364" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>618</v>
       </c>
@@ -44086,8 +45533,11 @@
       <c r="AK364">
         <v>1</v>
       </c>
+      <c r="AL364">
+        <v>1</v>
+      </c>
     </row>
-    <row r="365" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>620</v>
       </c>
@@ -44199,8 +45649,11 @@
       <c r="AK365">
         <v>0</v>
       </c>
+      <c r="AL365">
+        <v>0</v>
+      </c>
     </row>
-    <row r="366" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>622</v>
       </c>
@@ -44309,8 +45762,14 @@
       <c r="AJ366">
         <v>1</v>
       </c>
+      <c r="AK366">
+        <v>1</v>
+      </c>
+      <c r="AL366">
+        <v>1</v>
+      </c>
     </row>
-    <row r="367" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>624</v>
       </c>
@@ -44422,8 +45881,11 @@
       <c r="AK367">
         <v>1</v>
       </c>
+      <c r="AL367">
+        <v>1</v>
+      </c>
     </row>
-    <row r="368" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>14</v>
       </c>
@@ -44535,8 +45997,11 @@
       <c r="AK368">
         <v>1</v>
       </c>
+      <c r="AL368">
+        <v>1</v>
+      </c>
     </row>
-    <row r="369" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>627</v>
       </c>
@@ -44648,8 +46113,11 @@
       <c r="AK369">
         <v>1</v>
       </c>
+      <c r="AL369">
+        <v>1</v>
+      </c>
     </row>
-    <row r="370" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>533</v>
       </c>
@@ -44761,8 +46229,11 @@
       <c r="AK370">
         <v>1</v>
       </c>
+      <c r="AL370">
+        <v>1</v>
+      </c>
     </row>
-    <row r="371" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>630</v>
       </c>
@@ -44874,8 +46345,11 @@
       <c r="AK371">
         <v>1</v>
       </c>
+      <c r="AL371">
+        <v>1</v>
+      </c>
     </row>
-    <row r="372" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>632</v>
       </c>
@@ -44984,8 +46458,14 @@
       <c r="AJ372">
         <v>1</v>
       </c>
+      <c r="AK372">
+        <v>1</v>
+      </c>
+      <c r="AL372">
+        <v>1</v>
+      </c>
     </row>
-    <row r="373" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" t="s">
         <v>633</v>
       </c>
@@ -45091,8 +46571,14 @@
       <c r="AJ373">
         <v>1</v>
       </c>
+      <c r="AK373">
+        <v>1</v>
+      </c>
+      <c r="AL373">
+        <v>1</v>
+      </c>
     </row>
-    <row r="374" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>155</v>
       </c>
@@ -45204,8 +46690,11 @@
       <c r="AK374">
         <v>1</v>
       </c>
+      <c r="AL374">
+        <v>1</v>
+      </c>
     </row>
-    <row r="375" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>635</v>
       </c>
@@ -45317,8 +46806,11 @@
       <c r="AK375">
         <v>1</v>
       </c>
+      <c r="AL375">
+        <v>1</v>
+      </c>
     </row>
-    <row r="376" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>636</v>
       </c>
@@ -45430,8 +46922,11 @@
       <c r="AK376">
         <v>1</v>
       </c>
+      <c r="AL376">
+        <v>1</v>
+      </c>
     </row>
-    <row r="377" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>638</v>
       </c>
@@ -45540,8 +47035,14 @@
       <c r="AJ377">
         <v>1</v>
       </c>
+      <c r="AK377">
+        <v>1</v>
+      </c>
+      <c r="AL377">
+        <v>1</v>
+      </c>
     </row>
-    <row r="378" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>355</v>
       </c>
@@ -45653,8 +47154,11 @@
       <c r="AK378">
         <v>1</v>
       </c>
+      <c r="AL378">
+        <v>1</v>
+      </c>
     </row>
-    <row r="379" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>641</v>
       </c>
@@ -45766,8 +47270,11 @@
       <c r="AK379">
         <v>1</v>
       </c>
+      <c r="AL379">
+        <v>1</v>
+      </c>
     </row>
-    <row r="380" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>227</v>
       </c>
@@ -45879,8 +47386,11 @@
       <c r="AK380">
         <v>0</v>
       </c>
+      <c r="AL380">
+        <v>0</v>
+      </c>
     </row>
-    <row r="381" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>644</v>
       </c>
@@ -45989,8 +47499,14 @@
       <c r="AJ381">
         <v>1</v>
       </c>
+      <c r="AK381">
+        <v>1</v>
+      </c>
+      <c r="AL381">
+        <v>1</v>
+      </c>
     </row>
-    <row r="382" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>646</v>
       </c>
@@ -46099,8 +47615,14 @@
       <c r="AJ382">
         <v>1</v>
       </c>
+      <c r="AK382">
+        <v>1</v>
+      </c>
+      <c r="AL382">
+        <v>1</v>
+      </c>
     </row>
-    <row r="383" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>648</v>
       </c>
@@ -46209,8 +47731,14 @@
       <c r="AJ383">
         <v>1</v>
       </c>
+      <c r="AK383">
+        <v>1</v>
+      </c>
+      <c r="AL383">
+        <v>1</v>
+      </c>
     </row>
-    <row r="384" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>230</v>
       </c>
@@ -46322,8 +47850,11 @@
       <c r="AK384">
         <v>1</v>
       </c>
+      <c r="AL384">
+        <v>1</v>
+      </c>
     </row>
-    <row r="385" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>95</v>
       </c>
@@ -46435,8 +47966,11 @@
       <c r="AK385">
         <v>1</v>
       </c>
+      <c r="AL385">
+        <v>1</v>
+      </c>
     </row>
-    <row r="386" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>159</v>
       </c>
@@ -46545,8 +48079,14 @@
       <c r="AJ386">
         <v>1</v>
       </c>
+      <c r="AK386">
+        <v>1</v>
+      </c>
+      <c r="AL386">
+        <v>1</v>
+      </c>
     </row>
-    <row r="387" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>475</v>
       </c>
@@ -46655,8 +48195,11 @@
       <c r="AJ387">
         <v>1</v>
       </c>
+      <c r="AK387">
+        <v>1</v>
+      </c>
     </row>
-    <row r="388" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>230</v>
       </c>
@@ -46768,8 +48311,11 @@
       <c r="AK388">
         <v>0</v>
       </c>
+      <c r="AL388">
+        <v>0</v>
+      </c>
     </row>
-    <row r="389" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>230</v>
       </c>
@@ -46881,8 +48427,11 @@
       <c r="AK389">
         <v>1</v>
       </c>
+      <c r="AL389">
+        <v>1</v>
+      </c>
     </row>
-    <row r="390" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>81</v>
       </c>
@@ -46991,8 +48540,11 @@
       <c r="AJ390">
         <v>1</v>
       </c>
+      <c r="AK390">
+        <v>1</v>
+      </c>
     </row>
-    <row r="391" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>53</v>
       </c>
@@ -47104,8 +48656,11 @@
       <c r="AK391">
         <v>1</v>
       </c>
+      <c r="AL391">
+        <v>1</v>
+      </c>
     </row>
-    <row r="392" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>258</v>
       </c>
@@ -47217,8 +48772,11 @@
       <c r="AK392">
         <v>1</v>
       </c>
+      <c r="AL392">
+        <v>0</v>
+      </c>
     </row>
-    <row r="393" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>389</v>
       </c>
@@ -47330,8 +48888,11 @@
       <c r="AK393">
         <v>1</v>
       </c>
+      <c r="AL393">
+        <v>1</v>
+      </c>
     </row>
-    <row r="394" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>211</v>
       </c>
@@ -47440,8 +49001,14 @@
       <c r="AJ394">
         <v>0</v>
       </c>
+      <c r="AK394">
+        <v>0</v>
+      </c>
+      <c r="AL394">
+        <v>1</v>
+      </c>
     </row>
-    <row r="395" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>660</v>
       </c>
@@ -47550,8 +49117,11 @@
       <c r="AJ395">
         <v>1</v>
       </c>
+      <c r="AK395">
+        <v>1</v>
+      </c>
     </row>
-    <row r="396" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>661</v>
       </c>
@@ -47660,8 +49230,14 @@
       <c r="AJ396">
         <v>1</v>
       </c>
+      <c r="AK396">
+        <v>1</v>
+      </c>
+      <c r="AL396">
+        <v>1</v>
+      </c>
     </row>
-    <row r="397" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>663</v>
       </c>
@@ -47770,8 +49346,14 @@
       <c r="AJ397">
         <v>1</v>
       </c>
+      <c r="AK397">
+        <v>1</v>
+      </c>
+      <c r="AL397">
+        <v>1</v>
+      </c>
     </row>
-    <row r="398" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>665</v>
       </c>
@@ -47880,8 +49462,14 @@
       <c r="AJ398">
         <v>1</v>
       </c>
+      <c r="AK398">
+        <v>1</v>
+      </c>
+      <c r="AL398">
+        <v>1</v>
+      </c>
     </row>
-    <row r="399" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>357</v>
       </c>
@@ -47993,8 +49581,11 @@
       <c r="AK399">
         <v>1</v>
       </c>
+      <c r="AL399">
+        <v>1</v>
+      </c>
     </row>
-    <row r="400" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>668</v>
       </c>
@@ -48106,8 +49697,11 @@
       <c r="AK400">
         <v>1</v>
       </c>
+      <c r="AL400">
+        <v>1</v>
+      </c>
     </row>
-    <row r="401" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>230</v>
       </c>
@@ -48219,8 +49813,11 @@
       <c r="AK401">
         <v>1</v>
       </c>
+      <c r="AL401">
+        <v>1</v>
+      </c>
     </row>
-    <row r="402" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>671</v>
       </c>
@@ -48332,8 +49929,11 @@
       <c r="AK402">
         <v>0</v>
       </c>
+      <c r="AL402">
+        <v>0</v>
+      </c>
     </row>
-    <row r="403" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>262</v>
       </c>
@@ -48445,8 +50045,11 @@
       <c r="AK403">
         <v>1</v>
       </c>
+      <c r="AL403">
+        <v>1</v>
+      </c>
     </row>
-    <row r="404" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>298</v>
       </c>
@@ -48555,8 +50158,14 @@
       <c r="AJ404">
         <v>1</v>
       </c>
+      <c r="AK404">
+        <v>1</v>
+      </c>
+      <c r="AL404">
+        <v>1</v>
+      </c>
     </row>
-    <row r="405" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>675</v>
       </c>
@@ -48665,8 +50274,14 @@
       <c r="AJ405">
         <v>0</v>
       </c>
+      <c r="AK405">
+        <v>0</v>
+      </c>
+      <c r="AL405">
+        <v>0</v>
+      </c>
     </row>
-    <row r="406" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>677</v>
       </c>
@@ -48778,8 +50393,11 @@
       <c r="AK406">
         <v>1</v>
       </c>
+      <c r="AL406">
+        <v>1</v>
+      </c>
     </row>
-    <row r="407" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>679</v>
       </c>
@@ -48888,8 +50506,14 @@
       <c r="AJ407">
         <v>1</v>
       </c>
+      <c r="AK407">
+        <v>1</v>
+      </c>
+      <c r="AL407">
+        <v>1</v>
+      </c>
     </row>
-    <row r="408" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>681</v>
       </c>
@@ -48998,8 +50622,14 @@
       <c r="AJ408">
         <v>1</v>
       </c>
+      <c r="AK408">
+        <v>1</v>
+      </c>
+      <c r="AL408">
+        <v>1</v>
+      </c>
     </row>
-    <row r="409" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>242</v>
       </c>
@@ -49111,8 +50741,11 @@
       <c r="AK409">
         <v>1</v>
       </c>
+      <c r="AL409">
+        <v>1</v>
+      </c>
     </row>
-    <row r="410" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>684</v>
       </c>
@@ -49221,8 +50854,14 @@
       <c r="AJ410">
         <v>1</v>
       </c>
+      <c r="AK410">
+        <v>1</v>
+      </c>
+      <c r="AL410">
+        <v>1</v>
+      </c>
     </row>
-    <row r="411" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>686</v>
       </c>
@@ -49334,8 +50973,11 @@
       <c r="AK411">
         <v>1</v>
       </c>
+      <c r="AL411">
+        <v>1</v>
+      </c>
     </row>
-    <row r="412" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>688</v>
       </c>
@@ -49444,8 +51086,11 @@
       <c r="AJ412">
         <v>1</v>
       </c>
+      <c r="AK412">
+        <v>1</v>
+      </c>
     </row>
-    <row r="413" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>230</v>
       </c>
@@ -49557,8 +51202,11 @@
       <c r="AK413">
         <v>0</v>
       </c>
+      <c r="AL413">
+        <v>0</v>
+      </c>
     </row>
-    <row r="414" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>571</v>
       </c>
@@ -49667,8 +51315,14 @@
       <c r="AJ414">
         <v>1</v>
       </c>
+      <c r="AK414">
+        <v>1</v>
+      </c>
+      <c r="AL414">
+        <v>1</v>
+      </c>
     </row>
-    <row r="415" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>691</v>
       </c>
@@ -49780,8 +51434,11 @@
       <c r="AK415">
         <v>1</v>
       </c>
+      <c r="AL415">
+        <v>1</v>
+      </c>
     </row>
-    <row r="416" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>693</v>
       </c>
@@ -49893,8 +51550,11 @@
       <c r="AK416">
         <v>1</v>
       </c>
+      <c r="AL416">
+        <v>1</v>
+      </c>
     </row>
-    <row r="417" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>695</v>
       </c>
@@ -50006,8 +51666,11 @@
       <c r="AK417">
         <v>1</v>
       </c>
+      <c r="AL417">
+        <v>1</v>
+      </c>
     </row>
-    <row r="418" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>697</v>
       </c>
@@ -50116,8 +51779,14 @@
       <c r="AJ418">
         <v>1</v>
       </c>
+      <c r="AK418">
+        <v>1</v>
+      </c>
+      <c r="AL418">
+        <v>1</v>
+      </c>
     </row>
-    <row r="419" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>24</v>
       </c>
@@ -50229,8 +51898,11 @@
       <c r="AK419">
         <v>1</v>
       </c>
+      <c r="AL419">
+        <v>1</v>
+      </c>
     </row>
-    <row r="420" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>485</v>
       </c>
@@ -50339,8 +52011,14 @@
       <c r="AJ420">
         <v>1</v>
       </c>
+      <c r="AK420">
+        <v>1</v>
+      </c>
+      <c r="AL420">
+        <v>1</v>
+      </c>
     </row>
-    <row r="421" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>701</v>
       </c>
@@ -50449,8 +52127,14 @@
       <c r="AJ421">
         <v>1</v>
       </c>
+      <c r="AK421">
+        <v>1</v>
+      </c>
+      <c r="AL421">
+        <v>1</v>
+      </c>
     </row>
-    <row r="422" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>702</v>
       </c>
@@ -50562,8 +52246,11 @@
       <c r="AK422">
         <v>1</v>
       </c>
+      <c r="AL422">
+        <v>1</v>
+      </c>
     </row>
-    <row r="423" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>703</v>
       </c>
@@ -50675,8 +52362,11 @@
       <c r="AK423">
         <v>1</v>
       </c>
+      <c r="AL423">
+        <v>1</v>
+      </c>
     </row>
-    <row r="424" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>705</v>
       </c>
@@ -50785,8 +52475,11 @@
       <c r="AJ424">
         <v>1</v>
       </c>
+      <c r="AK424">
+        <v>1</v>
+      </c>
     </row>
-    <row r="425" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>707</v>
       </c>
@@ -50895,8 +52588,14 @@
       <c r="AJ425">
         <v>1</v>
       </c>
+      <c r="AK425">
+        <v>1</v>
+      </c>
+      <c r="AL425">
+        <v>1</v>
+      </c>
     </row>
-    <row r="426" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>709</v>
       </c>
@@ -51005,8 +52704,14 @@
       <c r="AJ426">
         <v>1</v>
       </c>
+      <c r="AK426">
+        <v>1</v>
+      </c>
+      <c r="AL426">
+        <v>1</v>
+      </c>
     </row>
-    <row r="427" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>460</v>
       </c>
@@ -51118,8 +52823,11 @@
       <c r="AK427">
         <v>1</v>
       </c>
+      <c r="AL427">
+        <v>1</v>
+      </c>
     </row>
-    <row r="428" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>712</v>
       </c>
@@ -51231,8 +52939,11 @@
       <c r="AK428">
         <v>1</v>
       </c>
+      <c r="AL428">
+        <v>1</v>
+      </c>
     </row>
-    <row r="429" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>714</v>
       </c>
@@ -51341,8 +53052,14 @@
       <c r="AJ429">
         <v>1</v>
       </c>
+      <c r="AK429">
+        <v>1</v>
+      </c>
+      <c r="AL429">
+        <v>0</v>
+      </c>
     </row>
-    <row r="430" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>98</v>
       </c>
@@ -51451,8 +53168,14 @@
       <c r="AJ430">
         <v>1</v>
       </c>
+      <c r="AK430">
+        <v>1</v>
+      </c>
+      <c r="AL430">
+        <v>1</v>
+      </c>
     </row>
-    <row r="431" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>717</v>
       </c>
@@ -51561,8 +53284,11 @@
       <c r="AJ431">
         <v>0</v>
       </c>
+      <c r="AK431">
+        <v>0</v>
+      </c>
     </row>
-    <row r="432" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>719</v>
       </c>
@@ -51674,8 +53400,11 @@
       <c r="AK432">
         <v>1</v>
       </c>
+      <c r="AL432">
+        <v>1</v>
+      </c>
     </row>
-    <row r="433" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>721</v>
       </c>
@@ -51784,8 +53513,14 @@
       <c r="AJ433">
         <v>1</v>
       </c>
+      <c r="AK433">
+        <v>1</v>
+      </c>
+      <c r="AL433">
+        <v>1</v>
+      </c>
     </row>
-    <row r="434" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>723</v>
       </c>
@@ -51897,8 +53632,11 @@
       <c r="AK434">
         <v>1</v>
       </c>
+      <c r="AL434">
+        <v>1</v>
+      </c>
     </row>
-    <row r="435" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>725</v>
       </c>
@@ -52010,8 +53748,11 @@
       <c r="AK435">
         <v>1</v>
       </c>
+      <c r="AL435">
+        <v>1</v>
+      </c>
     </row>
-    <row r="436" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>727</v>
       </c>
@@ -52120,8 +53861,14 @@
       <c r="AJ436">
         <v>1</v>
       </c>
+      <c r="AK436">
+        <v>1</v>
+      </c>
+      <c r="AL436">
+        <v>1</v>
+      </c>
     </row>
-    <row r="437" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>729</v>
       </c>
@@ -52233,8 +53980,11 @@
       <c r="AK437">
         <v>1</v>
       </c>
+      <c r="AL437">
+        <v>0</v>
+      </c>
     </row>
-    <row r="438" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>731</v>
       </c>
@@ -52343,8 +54093,14 @@
       <c r="AJ438">
         <v>1</v>
       </c>
+      <c r="AK438">
+        <v>1</v>
+      </c>
+      <c r="AL438">
+        <v>1</v>
+      </c>
     </row>
-    <row r="439" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>449</v>
       </c>
@@ -52453,8 +54209,14 @@
       <c r="AJ439">
         <v>1</v>
       </c>
+      <c r="AK439">
+        <v>1</v>
+      </c>
+      <c r="AL439">
+        <v>1</v>
+      </c>
     </row>
-    <row r="440" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B440" t="s">
         <v>734</v>
       </c>
@@ -52560,8 +54322,14 @@
       <c r="AJ440">
         <v>1</v>
       </c>
+      <c r="AK440">
+        <v>1</v>
+      </c>
+      <c r="AL440">
+        <v>1</v>
+      </c>
     </row>
-    <row r="441" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>735</v>
       </c>
@@ -52670,8 +54438,14 @@
       <c r="AJ441">
         <v>1</v>
       </c>
+      <c r="AK441">
+        <v>1</v>
+      </c>
+      <c r="AL441">
+        <v>1</v>
+      </c>
     </row>
-    <row r="442" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>159</v>
       </c>
@@ -52783,8 +54557,11 @@
       <c r="AK442">
         <v>1</v>
       </c>
+      <c r="AL442">
+        <v>1</v>
+      </c>
     </row>
-    <row r="443" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>738</v>
       </c>
@@ -52896,8 +54673,11 @@
       <c r="AK443">
         <v>1</v>
       </c>
+      <c r="AL443">
+        <v>1</v>
+      </c>
     </row>
-    <row r="444" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>740</v>
       </c>
@@ -53006,8 +54786,11 @@
       <c r="AJ444">
         <v>1</v>
       </c>
+      <c r="AK444">
+        <v>1</v>
+      </c>
     </row>
-    <row r="445" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>184</v>
       </c>
@@ -53116,8 +54899,11 @@
       <c r="AJ445">
         <v>1</v>
       </c>
+      <c r="AK445">
+        <v>1</v>
+      </c>
     </row>
-    <row r="446" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>743</v>
       </c>
@@ -53226,8 +55012,14 @@
       <c r="AJ446">
         <v>0</v>
       </c>
+      <c r="AK446">
+        <v>0</v>
+      </c>
+      <c r="AL446">
+        <v>0</v>
+      </c>
     </row>
-    <row r="447" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>745</v>
       </c>
@@ -53336,8 +55128,14 @@
       <c r="AJ447">
         <v>1</v>
       </c>
+      <c r="AK447">
+        <v>1</v>
+      </c>
+      <c r="AL447">
+        <v>1</v>
+      </c>
     </row>
-    <row r="448" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>747</v>
       </c>
@@ -53449,8 +55247,11 @@
       <c r="AK448">
         <v>1</v>
       </c>
+      <c r="AL448">
+        <v>1</v>
+      </c>
     </row>
-    <row r="449" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>749</v>
       </c>
@@ -53559,8 +55360,11 @@
       <c r="AJ449">
         <v>1</v>
       </c>
+      <c r="AK449">
+        <v>1</v>
+      </c>
     </row>
-    <row r="450" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>240</v>
       </c>
@@ -53669,8 +55473,14 @@
       <c r="AJ450">
         <v>1</v>
       </c>
+      <c r="AK450">
+        <v>1</v>
+      </c>
+      <c r="AL450">
+        <v>1</v>
+      </c>
     </row>
-    <row r="451" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>752</v>
       </c>
@@ -53782,8 +55592,11 @@
       <c r="AK451">
         <v>1</v>
       </c>
+      <c r="AL451">
+        <v>1</v>
+      </c>
     </row>
-    <row r="452" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>754</v>
       </c>
@@ -53895,8 +55708,11 @@
       <c r="AK452">
         <v>1</v>
       </c>
+      <c r="AL452">
+        <v>1</v>
+      </c>
     </row>
-    <row r="453" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B453" t="s">
         <v>756</v>
       </c>
@@ -54002,8 +55818,11 @@
       <c r="AJ453">
         <v>1</v>
       </c>
+      <c r="AK453">
+        <v>1</v>
+      </c>
     </row>
-    <row r="454" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>264</v>
       </c>
@@ -54112,8 +55931,14 @@
       <c r="AJ454">
         <v>1</v>
       </c>
+      <c r="AK454">
+        <v>1</v>
+      </c>
+      <c r="AL454">
+        <v>1</v>
+      </c>
     </row>
-    <row r="455" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>758</v>
       </c>
@@ -54222,8 +56047,14 @@
       <c r="AJ455">
         <v>1</v>
       </c>
+      <c r="AK455">
+        <v>1</v>
+      </c>
+      <c r="AL455">
+        <v>1</v>
+      </c>
     </row>
-    <row r="456" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>161</v>
       </c>
@@ -54332,8 +56163,14 @@
       <c r="AJ456">
         <v>1</v>
       </c>
+      <c r="AK456">
+        <v>1</v>
+      </c>
+      <c r="AL456">
+        <v>1</v>
+      </c>
     </row>
-    <row r="457" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>761</v>
       </c>
@@ -54442,8 +56279,14 @@
       <c r="AJ457">
         <v>1</v>
       </c>
+      <c r="AK457">
+        <v>1</v>
+      </c>
+      <c r="AL457">
+        <v>1</v>
+      </c>
     </row>
-    <row r="458" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>475</v>
       </c>
@@ -54555,8 +56398,11 @@
       <c r="AK458">
         <v>1</v>
       </c>
+      <c r="AL458">
+        <v>1</v>
+      </c>
     </row>
-    <row r="459" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>764</v>
       </c>
@@ -54665,8 +56511,14 @@
       <c r="AJ459">
         <v>1</v>
       </c>
+      <c r="AK459">
+        <v>1</v>
+      </c>
+      <c r="AL459">
+        <v>1</v>
+      </c>
     </row>
-    <row r="460" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>765</v>
       </c>
@@ -54778,8 +56630,11 @@
       <c r="AK460">
         <v>1</v>
       </c>
+      <c r="AL460">
+        <v>1</v>
+      </c>
     </row>
-    <row r="461" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>246</v>
       </c>
@@ -54888,8 +56743,14 @@
       <c r="AJ461">
         <v>1</v>
       </c>
+      <c r="AK461">
+        <v>1</v>
+      </c>
+      <c r="AL461">
+        <v>1</v>
+      </c>
     </row>
-    <row r="462" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>164</v>
       </c>
@@ -55001,8 +56862,11 @@
       <c r="AK462">
         <v>1</v>
       </c>
+      <c r="AL462">
+        <v>1</v>
+      </c>
     </row>
-    <row r="463" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B463" t="s">
         <v>743</v>
       </c>
@@ -55108,8 +56972,14 @@
       <c r="AJ463">
         <v>1</v>
       </c>
+      <c r="AK463">
+        <v>1</v>
+      </c>
+      <c r="AL463">
+        <v>1</v>
+      </c>
     </row>
-    <row r="464" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>595</v>
       </c>
@@ -55221,8 +57091,11 @@
       <c r="AK464">
         <v>1</v>
       </c>
+      <c r="AL464">
+        <v>1</v>
+      </c>
     </row>
-    <row r="465" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>217</v>
       </c>
@@ -55334,8 +57207,11 @@
       <c r="AK465">
         <v>1</v>
       </c>
+      <c r="AL465">
+        <v>1</v>
+      </c>
     </row>
-    <row r="466" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>340</v>
       </c>
@@ -55447,8 +57323,11 @@
       <c r="AK466">
         <v>1</v>
       </c>
+      <c r="AL466">
+        <v>1</v>
+      </c>
     </row>
-    <row r="467" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>772</v>
       </c>
@@ -55557,8 +57436,14 @@
       <c r="AJ467">
         <v>1</v>
       </c>
+      <c r="AK467">
+        <v>1</v>
+      </c>
+      <c r="AL467">
+        <v>1</v>
+      </c>
     </row>
-    <row r="468" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>598</v>
       </c>
@@ -55667,8 +57552,14 @@
       <c r="AJ468">
         <v>1</v>
       </c>
+      <c r="AK468">
+        <v>1</v>
+      </c>
+      <c r="AL468">
+        <v>1</v>
+      </c>
     </row>
-    <row r="469" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>162</v>
       </c>
@@ -55780,8 +57671,11 @@
       <c r="AK469">
         <v>1</v>
       </c>
+      <c r="AL469">
+        <v>1</v>
+      </c>
     </row>
-    <row r="470" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>428</v>
       </c>
@@ -55893,8 +57787,11 @@
       <c r="AK470">
         <v>1</v>
       </c>
+      <c r="AL470">
+        <v>1</v>
+      </c>
     </row>
-    <row r="471" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>776</v>
       </c>
@@ -56003,8 +57900,11 @@
       <c r="AJ471">
         <v>1</v>
       </c>
+      <c r="AK471">
+        <v>1</v>
+      </c>
     </row>
-    <row r="472" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>552</v>
       </c>
@@ -56116,8 +58016,11 @@
       <c r="AK472">
         <v>1</v>
       </c>
+      <c r="AL472">
+        <v>1</v>
+      </c>
     </row>
-    <row r="473" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>304</v>
       </c>
@@ -56229,8 +58132,11 @@
       <c r="AK473">
         <v>1</v>
       </c>
+      <c r="AL473">
+        <v>1</v>
+      </c>
     </row>
-    <row r="474" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>780</v>
       </c>
@@ -56342,8 +58248,11 @@
       <c r="AK474">
         <v>1</v>
       </c>
+      <c r="AL474">
+        <v>1</v>
+      </c>
     </row>
-    <row r="475" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>475</v>
       </c>
@@ -56455,8 +58364,11 @@
       <c r="AK475">
         <v>1</v>
       </c>
+      <c r="AL475">
+        <v>1</v>
+      </c>
     </row>
-    <row r="476" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>783</v>
       </c>
@@ -56568,8 +58480,11 @@
       <c r="AK476">
         <v>1</v>
       </c>
+      <c r="AL476">
+        <v>1</v>
+      </c>
     </row>
-    <row r="477" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>529</v>
       </c>
@@ -56681,8 +58596,11 @@
       <c r="AK477">
         <v>1</v>
       </c>
+      <c r="AL477">
+        <v>1</v>
+      </c>
     </row>
-    <row r="478" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>24</v>
       </c>
@@ -56794,8 +58712,11 @@
       <c r="AK478">
         <v>1</v>
       </c>
+      <c r="AL478">
+        <v>1</v>
+      </c>
     </row>
-    <row r="479" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>584</v>
       </c>
@@ -56907,8 +58828,11 @@
       <c r="AK479">
         <v>0</v>
       </c>
+      <c r="AL479">
+        <v>0</v>
+      </c>
     </row>
-    <row r="480" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>788</v>
       </c>
@@ -57020,8 +58944,11 @@
       <c r="AK480">
         <v>1</v>
       </c>
+      <c r="AL480">
+        <v>1</v>
+      </c>
     </row>
-    <row r="481" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>790</v>
       </c>
@@ -57130,8 +59057,14 @@
       <c r="AJ481">
         <v>1</v>
       </c>
+      <c r="AK481">
+        <v>1</v>
+      </c>
+      <c r="AL481">
+        <v>1</v>
+      </c>
     </row>
-    <row r="482" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>792</v>
       </c>
@@ -57243,8 +59176,11 @@
       <c r="AK482">
         <v>1</v>
       </c>
+      <c r="AL482">
+        <v>1</v>
+      </c>
     </row>
-    <row r="483" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>242</v>
       </c>
@@ -57356,8 +59292,11 @@
       <c r="AK483">
         <v>1</v>
       </c>
+      <c r="AL483">
+        <v>1</v>
+      </c>
     </row>
-    <row r="484" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>242</v>
       </c>
@@ -57466,8 +59405,14 @@
       <c r="AJ484">
         <v>0</v>
       </c>
+      <c r="AK484">
+        <v>0</v>
+      </c>
+      <c r="AL484">
+        <v>1</v>
+      </c>
     </row>
-    <row r="485" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>345</v>
       </c>
@@ -57576,8 +59521,14 @@
       <c r="AJ485">
         <v>1</v>
       </c>
+      <c r="AK485">
+        <v>1</v>
+      </c>
+      <c r="AL485">
+        <v>1</v>
+      </c>
     </row>
-    <row r="486" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>797</v>
       </c>
@@ -57686,8 +59637,14 @@
       <c r="AJ486">
         <v>0</v>
       </c>
+      <c r="AK486">
+        <v>0</v>
+      </c>
+      <c r="AL486">
+        <v>0</v>
+      </c>
     </row>
-    <row r="487" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>153</v>
       </c>
@@ -57799,8 +59756,11 @@
       <c r="AK487">
         <v>1</v>
       </c>
+      <c r="AL487">
+        <v>1</v>
+      </c>
     </row>
-    <row r="488" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>22</v>
       </c>
@@ -57909,8 +59869,11 @@
       <c r="AJ488">
         <v>1</v>
       </c>
+      <c r="AK488">
+        <v>1</v>
+      </c>
     </row>
-    <row r="489" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>801</v>
       </c>
@@ -58019,8 +59982,14 @@
       <c r="AJ489">
         <v>0</v>
       </c>
+      <c r="AK489">
+        <v>0</v>
+      </c>
+      <c r="AL489">
+        <v>0</v>
+      </c>
     </row>
-    <row r="490" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>803</v>
       </c>
@@ -58129,8 +60098,14 @@
       <c r="AJ490">
         <v>1</v>
       </c>
+      <c r="AK490">
+        <v>1</v>
+      </c>
+      <c r="AL490">
+        <v>1</v>
+      </c>
     </row>
-    <row r="491" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B491" t="s">
         <v>805</v>
       </c>
@@ -58239,8 +60214,11 @@
       <c r="AK491">
         <v>1</v>
       </c>
+      <c r="AL491">
+        <v>1</v>
+      </c>
     </row>
-    <row r="492" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>806</v>
       </c>
@@ -58352,8 +60330,11 @@
       <c r="AK492">
         <v>1</v>
       </c>
+      <c r="AL492">
+        <v>1</v>
+      </c>
     </row>
-    <row r="493" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>162</v>
       </c>
@@ -58462,8 +60443,14 @@
       <c r="AJ493">
         <v>1</v>
       </c>
+      <c r="AK493">
+        <v>1</v>
+      </c>
+      <c r="AL493">
+        <v>1</v>
+      </c>
     </row>
-    <row r="494" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>379</v>
       </c>
@@ -58572,8 +60559,14 @@
       <c r="AJ494">
         <v>1</v>
       </c>
+      <c r="AK494">
+        <v>1</v>
+      </c>
+      <c r="AL494">
+        <v>1</v>
+      </c>
     </row>
-    <row r="495" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>810</v>
       </c>
@@ -58685,8 +60678,11 @@
       <c r="AK495">
         <v>1</v>
       </c>
+      <c r="AL495">
+        <v>1</v>
+      </c>
     </row>
-    <row r="496" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>304</v>
       </c>
@@ -58798,8 +60794,11 @@
       <c r="AK496">
         <v>1</v>
       </c>
+      <c r="AL496">
+        <v>1</v>
+      </c>
     </row>
-    <row r="497" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>227</v>
       </c>
@@ -58911,8 +60910,11 @@
       <c r="AK497">
         <v>1</v>
       </c>
+      <c r="AL497">
+        <v>1</v>
+      </c>
     </row>
-    <row r="498" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>814</v>
       </c>
@@ -59024,8 +61026,11 @@
       <c r="AK498">
         <v>0</v>
       </c>
+      <c r="AL498">
+        <v>1</v>
+      </c>
     </row>
-    <row r="499" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>33</v>
       </c>
@@ -59134,8 +61139,14 @@
       <c r="AJ499">
         <v>1</v>
       </c>
+      <c r="AK499">
+        <v>1</v>
+      </c>
+      <c r="AL499">
+        <v>1</v>
+      </c>
     </row>
-    <row r="500" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>359</v>
       </c>
@@ -59247,8 +61258,11 @@
       <c r="AK500">
         <v>1</v>
       </c>
+      <c r="AL500">
+        <v>1</v>
+      </c>
     </row>
-    <row r="501" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>37</v>
       </c>
@@ -59360,8 +61374,11 @@
       <c r="AK501">
         <v>1</v>
       </c>
+      <c r="AL501">
+        <v>1</v>
+      </c>
     </row>
-    <row r="502" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>20</v>
       </c>
@@ -59471,10 +61488,13 @@
         <v>0</v>
       </c>
       <c r="AK502">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AL502">
+        <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>820</v>
       </c>
@@ -59586,8 +61606,11 @@
       <c r="AK503">
         <v>1</v>
       </c>
+      <c r="AL503">
+        <v>1</v>
+      </c>
     </row>
-    <row r="504" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>432</v>
       </c>
@@ -59699,8 +61722,11 @@
       <c r="AK504">
         <v>1</v>
       </c>
+      <c r="AL504">
+        <v>1</v>
+      </c>
     </row>
-    <row r="505" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>471</v>
       </c>
@@ -59809,8 +61835,11 @@
       <c r="AJ505">
         <v>0</v>
       </c>
+      <c r="AK505">
+        <v>0</v>
+      </c>
     </row>
-    <row r="506" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>824</v>
       </c>
@@ -59922,8 +61951,11 @@
       <c r="AK506">
         <v>1</v>
       </c>
+      <c r="AL506">
+        <v>1</v>
+      </c>
     </row>
-    <row r="507" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>432</v>
       </c>
@@ -60032,8 +62064,14 @@
       <c r="AJ507">
         <v>1</v>
       </c>
+      <c r="AK507">
+        <v>1</v>
+      </c>
+      <c r="AL507">
+        <v>1</v>
+      </c>
     </row>
-    <row r="508" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>52</v>
       </c>
@@ -60142,8 +62180,14 @@
       <c r="AJ508">
         <v>1</v>
       </c>
+      <c r="AK508">
+        <v>1</v>
+      </c>
+      <c r="AL508">
+        <v>1</v>
+      </c>
     </row>
-    <row r="509" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>828</v>
       </c>
@@ -60255,8 +62299,11 @@
       <c r="AK509">
         <v>1</v>
       </c>
+      <c r="AL509">
+        <v>1</v>
+      </c>
     </row>
-    <row r="510" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>829</v>
       </c>
@@ -60368,8 +62415,11 @@
       <c r="AK510">
         <v>1</v>
       </c>
+      <c r="AL510">
+        <v>1</v>
+      </c>
     </row>
-    <row r="511" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>831</v>
       </c>
@@ -60478,8 +62528,14 @@
       <c r="AJ511">
         <v>1</v>
       </c>
+      <c r="AK511">
+        <v>1</v>
+      </c>
+      <c r="AL511">
+        <v>1</v>
+      </c>
     </row>
-    <row r="512" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>833</v>
       </c>
@@ -60588,8 +62644,14 @@
       <c r="AJ512">
         <v>1</v>
       </c>
+      <c r="AK512">
+        <v>1</v>
+      </c>
+      <c r="AL512">
+        <v>1</v>
+      </c>
     </row>
-    <row r="513" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>835</v>
       </c>
@@ -60701,8 +62763,11 @@
       <c r="AK513">
         <v>1</v>
       </c>
+      <c r="AL513">
+        <v>1</v>
+      </c>
     </row>
-    <row r="514" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>836</v>
       </c>
@@ -60814,8 +62879,11 @@
       <c r="AK514">
         <v>0</v>
       </c>
+      <c r="AL514">
+        <v>0</v>
+      </c>
     </row>
-    <row r="515" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>287</v>
       </c>
@@ -60927,8 +62995,11 @@
       <c r="AK515">
         <v>1</v>
       </c>
+      <c r="AL515">
+        <v>1</v>
+      </c>
     </row>
-    <row r="516" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>839</v>
       </c>
@@ -61037,8 +63108,14 @@
       <c r="AJ516">
         <v>0</v>
       </c>
+      <c r="AK516">
+        <v>0</v>
+      </c>
+      <c r="AL516">
+        <v>0</v>
+      </c>
     </row>
-    <row r="517" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>841</v>
       </c>
@@ -61150,8 +63227,11 @@
       <c r="AK517">
         <v>1</v>
       </c>
+      <c r="AL517">
+        <v>1</v>
+      </c>
     </row>
-    <row r="518" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>843</v>
       </c>
@@ -61260,8 +63340,11 @@
       <c r="AJ518">
         <v>1</v>
       </c>
+      <c r="AK518">
+        <v>1</v>
+      </c>
     </row>
-    <row r="519" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B519" t="s">
         <v>844</v>
       </c>
@@ -61370,8 +63453,11 @@
       <c r="AK519">
         <v>1</v>
       </c>
+      <c r="AL519">
+        <v>1</v>
+      </c>
     </row>
-    <row r="520" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>330</v>
       </c>
@@ -61480,8 +63566,14 @@
       <c r="AJ520">
         <v>1</v>
       </c>
+      <c r="AK520">
+        <v>1</v>
+      </c>
+      <c r="AL520">
+        <v>1</v>
+      </c>
     </row>
-    <row r="521" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>846</v>
       </c>
@@ -61593,8 +63685,11 @@
       <c r="AK521">
         <v>1</v>
       </c>
+      <c r="AL521">
+        <v>1</v>
+      </c>
     </row>
-    <row r="522" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>848</v>
       </c>
@@ -61706,8 +63801,11 @@
       <c r="AK522">
         <v>1</v>
       </c>
+      <c r="AL522">
+        <v>1</v>
+      </c>
     </row>
-    <row r="523" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>850</v>
       </c>
@@ -61819,8 +63917,11 @@
       <c r="AK523">
         <v>1</v>
       </c>
+      <c r="AL523">
+        <v>1</v>
+      </c>
     </row>
-    <row r="524" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>852</v>
       </c>
@@ -61932,8 +64033,11 @@
       <c r="AK524">
         <v>0</v>
       </c>
+      <c r="AL524">
+        <v>0</v>
+      </c>
     </row>
-    <row r="525" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>854</v>
       </c>
@@ -62042,8 +64146,11 @@
       <c r="AJ525">
         <v>1</v>
       </c>
+      <c r="AK525">
+        <v>1</v>
+      </c>
     </row>
-    <row r="526" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>689</v>
       </c>
@@ -62155,8 +64262,11 @@
       <c r="AK526">
         <v>1</v>
       </c>
+      <c r="AL526">
+        <v>1</v>
+      </c>
     </row>
-    <row r="527" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>98</v>
       </c>
@@ -62265,8 +64375,14 @@
       <c r="AJ527">
         <v>1</v>
       </c>
+      <c r="AK527">
+        <v>1</v>
+      </c>
+      <c r="AL527">
+        <v>1</v>
+      </c>
     </row>
-    <row r="528" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>857</v>
       </c>
@@ -62378,8 +64494,11 @@
       <c r="AK528">
         <v>1</v>
       </c>
+      <c r="AL528">
+        <v>1</v>
+      </c>
     </row>
-    <row r="529" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>369</v>
       </c>
@@ -62491,8 +64610,11 @@
       <c r="AK529">
         <v>1</v>
       </c>
+      <c r="AL529">
+        <v>1</v>
+      </c>
     </row>
-    <row r="530" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>120</v>
       </c>
@@ -62604,8 +64726,11 @@
       <c r="AK530">
         <v>1</v>
       </c>
+      <c r="AL530">
+        <v>1</v>
+      </c>
     </row>
-    <row r="531" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>861</v>
       </c>
@@ -62714,8 +64839,14 @@
       <c r="AJ531">
         <v>1</v>
       </c>
+      <c r="AK531">
+        <v>1</v>
+      </c>
+      <c r="AL531">
+        <v>1</v>
+      </c>
     </row>
-    <row r="532" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B532" t="s">
         <v>863</v>
       </c>
@@ -62824,8 +64955,11 @@
       <c r="AK532">
         <v>1</v>
       </c>
+      <c r="AL532">
+        <v>1</v>
+      </c>
     </row>
-    <row r="533" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>691</v>
       </c>
@@ -62937,8 +65071,11 @@
       <c r="AK533">
         <v>1</v>
       </c>
+      <c r="AL533">
+        <v>1</v>
+      </c>
     </row>
-    <row r="534" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>865</v>
       </c>
@@ -63050,8 +65187,11 @@
       <c r="AK534">
         <v>0</v>
       </c>
+      <c r="AL534">
+        <v>0</v>
+      </c>
     </row>
-    <row r="535" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B535" t="s">
         <v>867</v>
       </c>
@@ -63157,8 +65297,11 @@
       <c r="AJ535">
         <v>1</v>
       </c>
+      <c r="AK535">
+        <v>1</v>
+      </c>
     </row>
-    <row r="536" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>471</v>
       </c>
@@ -63267,8 +65410,11 @@
       <c r="AJ536">
         <v>1</v>
       </c>
+      <c r="AK536">
+        <v>1</v>
+      </c>
     </row>
-    <row r="537" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>164</v>
       </c>
@@ -63380,8 +65526,11 @@
       <c r="AK537">
         <v>1</v>
       </c>
+      <c r="AL537">
+        <v>1</v>
+      </c>
     </row>
-    <row r="538" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>525</v>
       </c>
@@ -63490,8 +65639,11 @@
       <c r="AJ538">
         <v>1</v>
       </c>
+      <c r="AK538">
+        <v>1</v>
+      </c>
     </row>
-    <row r="539" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>870</v>
       </c>
@@ -63603,8 +65755,11 @@
       <c r="AK539">
         <v>1</v>
       </c>
+      <c r="AL539">
+        <v>1</v>
+      </c>
     </row>
-    <row r="540" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>872</v>
       </c>
@@ -63713,8 +65868,11 @@
       <c r="AJ540">
         <v>1</v>
       </c>
+      <c r="AK540">
+        <v>1</v>
+      </c>
     </row>
-    <row r="541" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>874</v>
       </c>
@@ -63826,8 +65984,11 @@
       <c r="AK541">
         <v>1</v>
       </c>
+      <c r="AL541">
+        <v>1</v>
+      </c>
     </row>
-    <row r="542" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>876</v>
       </c>
@@ -63936,8 +66097,14 @@
       <c r="AJ542">
         <v>1</v>
       </c>
+      <c r="AK542">
+        <v>1</v>
+      </c>
+      <c r="AL542">
+        <v>1</v>
+      </c>
     </row>
-    <row r="543" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>156</v>
       </c>
@@ -64049,8 +66216,11 @@
       <c r="AK543">
         <v>1</v>
       </c>
+      <c r="AL543">
+        <v>1</v>
+      </c>
     </row>
-    <row r="544" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>879</v>
       </c>
@@ -64162,8 +66332,11 @@
       <c r="AK544">
         <v>1</v>
       </c>
+      <c r="AL544">
+        <v>1</v>
+      </c>
     </row>
-    <row r="545" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>313</v>
       </c>
@@ -64272,8 +66445,14 @@
       <c r="AJ545">
         <v>1</v>
       </c>
+      <c r="AK545">
+        <v>1</v>
+      </c>
+      <c r="AL545">
+        <v>1</v>
+      </c>
     </row>
-    <row r="546" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>882</v>
       </c>
@@ -64385,8 +66564,11 @@
       <c r="AK546">
         <v>1</v>
       </c>
+      <c r="AL546">
+        <v>1</v>
+      </c>
     </row>
-    <row r="547" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>172</v>
       </c>
@@ -64498,8 +66680,11 @@
       <c r="AK547">
         <v>1</v>
       </c>
+      <c r="AL547">
+        <v>1</v>
+      </c>
     </row>
-    <row r="548" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>885</v>
       </c>
@@ -64608,8 +66793,11 @@
       <c r="AJ548">
         <v>1</v>
       </c>
+      <c r="AK548">
+        <v>1</v>
+      </c>
     </row>
-    <row r="549" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>887</v>
       </c>
@@ -64721,8 +66909,11 @@
       <c r="AK549">
         <v>1</v>
       </c>
+      <c r="AL549">
+        <v>1</v>
+      </c>
     </row>
-    <row r="550" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>889</v>
       </c>
@@ -64834,8 +67025,11 @@
       <c r="AK550">
         <v>1</v>
       </c>
+      <c r="AL550">
+        <v>1</v>
+      </c>
     </row>
-    <row r="551" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>891</v>
       </c>
@@ -64947,8 +67141,11 @@
       <c r="AK551">
         <v>1</v>
       </c>
+      <c r="AL551">
+        <v>1</v>
+      </c>
     </row>
-    <row r="552" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>58</v>
       </c>
@@ -65060,8 +67257,11 @@
       <c r="AK552">
         <v>1</v>
       </c>
+      <c r="AL552">
+        <v>1</v>
+      </c>
     </row>
-    <row r="553" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>894</v>
       </c>
@@ -65173,8 +67373,11 @@
       <c r="AK553">
         <v>1</v>
       </c>
+      <c r="AL553">
+        <v>1</v>
+      </c>
     </row>
-    <row r="554" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>644</v>
       </c>
@@ -65286,8 +67489,11 @@
       <c r="AK554">
         <v>0</v>
       </c>
+      <c r="AL554">
+        <v>0</v>
+      </c>
     </row>
-    <row r="555" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>897</v>
       </c>
@@ -65399,8 +67605,11 @@
       <c r="AK555">
         <v>0</v>
       </c>
+      <c r="AL555">
+        <v>0</v>
+      </c>
     </row>
-    <row r="556" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>899</v>
       </c>
@@ -65512,8 +67721,11 @@
       <c r="AK556">
         <v>0</v>
       </c>
+      <c r="AL556">
+        <v>0</v>
+      </c>
     </row>
-    <row r="557" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>901</v>
       </c>
@@ -65625,8 +67837,11 @@
       <c r="AK557">
         <v>0</v>
       </c>
+      <c r="AL557">
+        <v>1</v>
+      </c>
     </row>
-    <row r="558" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>903</v>
       </c>
@@ -65738,8 +67953,11 @@
       <c r="AK558">
         <v>1</v>
       </c>
+      <c r="AL558">
+        <v>1</v>
+      </c>
     </row>
-    <row r="559" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>164</v>
       </c>
@@ -65848,8 +68066,11 @@
       <c r="AJ559">
         <v>2</v>
       </c>
+      <c r="AK559">
+        <v>2</v>
+      </c>
     </row>
-    <row r="560" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>905</v>
       </c>
@@ -65958,8 +68179,14 @@
       <c r="AJ560">
         <v>1</v>
       </c>
+      <c r="AK560">
+        <v>1</v>
+      </c>
+      <c r="AL560">
+        <v>1</v>
+      </c>
     </row>
-    <row r="561" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>907</v>
       </c>
@@ -66068,8 +68295,11 @@
       <c r="AJ561">
         <v>1</v>
       </c>
+      <c r="AK561">
+        <v>1</v>
+      </c>
     </row>
-    <row r="562" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>908</v>
       </c>
@@ -66178,8 +68408,14 @@
       <c r="AJ562">
         <v>1</v>
       </c>
+      <c r="AK562">
+        <v>1</v>
+      </c>
+      <c r="AL562">
+        <v>1</v>
+      </c>
     </row>
-    <row r="563" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B563" t="s">
         <v>909</v>
       </c>
@@ -66288,8 +68524,11 @@
       <c r="AK563">
         <v>1</v>
       </c>
+      <c r="AL563">
+        <v>1</v>
+      </c>
     </row>
-    <row r="564" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>489</v>
       </c>
@@ -66401,8 +68640,11 @@
       <c r="AK564">
         <v>1</v>
       </c>
+      <c r="AL564">
+        <v>1</v>
+      </c>
     </row>
-    <row r="565" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>911</v>
       </c>
@@ -66511,8 +68753,14 @@
       <c r="AJ565">
         <v>0</v>
       </c>
+      <c r="AK565">
+        <v>0</v>
+      </c>
+      <c r="AL565">
+        <v>0</v>
+      </c>
     </row>
-    <row r="566" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>40</v>
       </c>
@@ -66624,8 +68872,11 @@
       <c r="AK566">
         <v>1</v>
       </c>
+      <c r="AL566">
+        <v>0</v>
+      </c>
     </row>
-    <row r="567" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>418</v>
       </c>
@@ -66737,8 +68988,11 @@
       <c r="AK567">
         <v>1</v>
       </c>
+      <c r="AL567">
+        <v>1</v>
+      </c>
     </row>
-    <row r="568" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>810</v>
       </c>
@@ -66850,8 +69104,11 @@
       <c r="AK568">
         <v>1</v>
       </c>
+      <c r="AL568">
+        <v>1</v>
+      </c>
     </row>
-    <row r="569" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>916</v>
       </c>
@@ -66963,8 +69220,11 @@
       <c r="AK569">
         <v>1</v>
       </c>
+      <c r="AL569">
+        <v>1</v>
+      </c>
     </row>
-    <row r="570" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>918</v>
       </c>
@@ -67073,8 +69333,11 @@
       <c r="AJ570">
         <v>1</v>
       </c>
+      <c r="AK570">
+        <v>1</v>
+      </c>
     </row>
-    <row r="571" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>162</v>
       </c>
@@ -67183,8 +69446,11 @@
       <c r="AJ571">
         <v>1</v>
       </c>
+      <c r="AK571">
+        <v>1</v>
+      </c>
     </row>
-    <row r="572" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>230</v>
       </c>
@@ -67296,8 +69562,11 @@
       <c r="AK572">
         <v>1</v>
       </c>
+      <c r="AL572">
+        <v>1</v>
+      </c>
     </row>
-    <row r="573" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>6</v>
       </c>
@@ -67409,8 +69678,11 @@
       <c r="AK573">
         <v>1</v>
       </c>
+      <c r="AL573">
+        <v>1</v>
+      </c>
     </row>
-    <row r="574" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>98</v>
       </c>
@@ -67522,8 +69794,11 @@
       <c r="AK574">
         <v>1</v>
       </c>
+      <c r="AL574">
+        <v>1</v>
+      </c>
     </row>
-    <row r="575" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>923</v>
       </c>
@@ -67632,8 +69907,11 @@
       <c r="AJ575">
         <v>1</v>
       </c>
+      <c r="AK575">
+        <v>1</v>
+      </c>
     </row>
-    <row r="576" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>924</v>
       </c>
@@ -67742,8 +70020,11 @@
       <c r="AJ576">
         <v>1</v>
       </c>
+      <c r="AK576">
+        <v>1</v>
+      </c>
     </row>
-    <row r="577" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>230</v>
       </c>
@@ -67855,8 +70136,11 @@
       <c r="AK577">
         <v>1</v>
       </c>
+      <c r="AL577">
+        <v>1</v>
+      </c>
     </row>
-    <row r="578" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>926</v>
       </c>
@@ -67965,8 +70249,14 @@
       <c r="AJ578">
         <v>1</v>
       </c>
+      <c r="AK578">
+        <v>1</v>
+      </c>
+      <c r="AL578">
+        <v>1</v>
+      </c>
     </row>
-    <row r="579" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>928</v>
       </c>
@@ -68078,8 +70368,11 @@
       <c r="AK579">
         <v>1</v>
       </c>
+      <c r="AL579">
+        <v>1</v>
+      </c>
     </row>
-    <row r="580" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>930</v>
       </c>
@@ -68191,8 +70484,11 @@
       <c r="AK580">
         <v>1</v>
       </c>
+      <c r="AL580">
+        <v>1</v>
+      </c>
     </row>
-    <row r="581" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>375</v>
       </c>
@@ -68301,8 +70597,11 @@
       <c r="AJ581">
         <v>1</v>
       </c>
+      <c r="AK581">
+        <v>1</v>
+      </c>
     </row>
-    <row r="582" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>22</v>
       </c>
@@ -68411,8 +70710,14 @@
       <c r="AJ582">
         <v>1</v>
       </c>
+      <c r="AK582">
+        <v>1</v>
+      </c>
+      <c r="AL582">
+        <v>1</v>
+      </c>
     </row>
-    <row r="583" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>934</v>
       </c>
@@ -68524,8 +70829,11 @@
       <c r="AK583">
         <v>1</v>
       </c>
+      <c r="AL583">
+        <v>1</v>
+      </c>
     </row>
-    <row r="584" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>936</v>
       </c>
@@ -68637,8 +70945,11 @@
       <c r="AK584">
         <v>1</v>
       </c>
+      <c r="AL584">
+        <v>1</v>
+      </c>
     </row>
-    <row r="585" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>246</v>
       </c>
@@ -68750,8 +71061,11 @@
       <c r="AK585">
         <v>1</v>
       </c>
+      <c r="AL585">
+        <v>1</v>
+      </c>
     </row>
-    <row r="586" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>939</v>
       </c>
@@ -68863,8 +71177,11 @@
       <c r="AK586">
         <v>1</v>
       </c>
+      <c r="AL586">
+        <v>1</v>
+      </c>
     </row>
-    <row r="587" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>941</v>
       </c>
@@ -68976,8 +71293,11 @@
       <c r="AK587">
         <v>1</v>
       </c>
+      <c r="AL587">
+        <v>1</v>
+      </c>
     </row>
-    <row r="588" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>52</v>
       </c>
@@ -69089,8 +71409,11 @@
       <c r="AK588">
         <v>1</v>
       </c>
+      <c r="AL588">
+        <v>1</v>
+      </c>
     </row>
-    <row r="589" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>944</v>
       </c>
@@ -69199,8 +71522,14 @@
       <c r="AJ589">
         <v>1</v>
       </c>
+      <c r="AK589">
+        <v>1</v>
+      </c>
+      <c r="AL589">
+        <v>1</v>
+      </c>
     </row>
-    <row r="590" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>945</v>
       </c>
@@ -69312,8 +71641,11 @@
       <c r="AK590">
         <v>1</v>
       </c>
+      <c r="AL590">
+        <v>1</v>
+      </c>
     </row>
-    <row r="591" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>947</v>
       </c>
@@ -69422,8 +71754,14 @@
       <c r="AJ591">
         <v>1</v>
       </c>
+      <c r="AK591">
+        <v>1</v>
+      </c>
+      <c r="AL591">
+        <v>1</v>
+      </c>
     </row>
-    <row r="592" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>949</v>
       </c>
@@ -69532,8 +71870,14 @@
       <c r="AJ592">
         <v>1</v>
       </c>
+      <c r="AK592">
+        <v>1</v>
+      </c>
+      <c r="AL592">
+        <v>1</v>
+      </c>
     </row>
-    <row r="593" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>951</v>
       </c>
@@ -69645,8 +71989,11 @@
       <c r="AK593">
         <v>1</v>
       </c>
+      <c r="AL593">
+        <v>1</v>
+      </c>
     </row>
-    <row r="594" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>702</v>
       </c>
@@ -69755,8 +72102,11 @@
       <c r="AJ594">
         <v>1</v>
       </c>
+      <c r="AK594">
+        <v>1</v>
+      </c>
     </row>
-    <row r="595" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>104</v>
       </c>
@@ -69865,8 +72215,11 @@
       <c r="AJ595">
         <v>1</v>
       </c>
+      <c r="AK595">
+        <v>1</v>
+      </c>
     </row>
-    <row r="596" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>955</v>
       </c>
@@ -69978,8 +72331,11 @@
       <c r="AK596">
         <v>1</v>
       </c>
+      <c r="AL596">
+        <v>1</v>
+      </c>
     </row>
-    <row r="597" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>81</v>
       </c>
@@ -70091,8 +72447,11 @@
       <c r="AK597">
         <v>1</v>
       </c>
+      <c r="AL597">
+        <v>1</v>
+      </c>
     </row>
-    <row r="598" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>958</v>
       </c>
@@ -70201,8 +72560,11 @@
       <c r="AJ598">
         <v>1</v>
       </c>
+      <c r="AK598">
+        <v>1</v>
+      </c>
     </row>
-    <row r="599" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>960</v>
       </c>
@@ -70314,8 +72676,11 @@
       <c r="AK599">
         <v>1</v>
       </c>
+      <c r="AL599">
+        <v>1</v>
+      </c>
     </row>
-    <row r="600" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>962</v>
       </c>
@@ -70427,8 +72792,11 @@
       <c r="AK600">
         <v>1</v>
       </c>
+      <c r="AL600">
+        <v>1</v>
+      </c>
     </row>
-    <row r="601" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>98</v>
       </c>
@@ -70537,8 +72905,14 @@
       <c r="AJ601">
         <v>1</v>
       </c>
+      <c r="AK601">
+        <v>1</v>
+      </c>
+      <c r="AL601">
+        <v>1</v>
+      </c>
     </row>
-    <row r="602" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>98</v>
       </c>
@@ -70647,8 +73021,11 @@
       <c r="AJ602">
         <v>0</v>
       </c>
+      <c r="AK602">
+        <v>0</v>
+      </c>
     </row>
-    <row r="603" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>440</v>
       </c>
@@ -70760,8 +73137,11 @@
       <c r="AK603">
         <v>1</v>
       </c>
+      <c r="AL603">
+        <v>1</v>
+      </c>
     </row>
-    <row r="604" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>242</v>
       </c>
@@ -70873,8 +73253,11 @@
       <c r="AK604">
         <v>1</v>
       </c>
+      <c r="AL604">
+        <v>1</v>
+      </c>
     </row>
-    <row r="605" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>571</v>
       </c>
@@ -70983,8 +73366,11 @@
       <c r="AJ605">
         <v>1</v>
       </c>
+      <c r="AK605">
+        <v>1</v>
+      </c>
     </row>
-    <row r="606" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>471</v>
       </c>
@@ -71096,8 +73482,11 @@
       <c r="AK606">
         <v>1</v>
       </c>
+      <c r="AL606">
+        <v>1</v>
+      </c>
     </row>
-    <row r="607" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>227</v>
       </c>
@@ -71209,8 +73598,11 @@
       <c r="AK607">
         <v>1</v>
       </c>
+      <c r="AL607">
+        <v>1</v>
+      </c>
     </row>
-    <row r="608" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>473</v>
       </c>
@@ -71322,8 +73714,11 @@
       <c r="AK608">
         <v>1</v>
       </c>
+      <c r="AL608">
+        <v>1</v>
+      </c>
     </row>
-    <row r="609" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>230</v>
       </c>
@@ -71432,8 +73827,11 @@
       <c r="AJ609">
         <v>1</v>
       </c>
+      <c r="AK609">
+        <v>1</v>
+      </c>
     </row>
-    <row r="610" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>258</v>
       </c>
@@ -71545,8 +73943,11 @@
       <c r="AK610">
         <v>1</v>
       </c>
+      <c r="AL610">
+        <v>1</v>
+      </c>
     </row>
-    <row r="611" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>471</v>
       </c>
@@ -71655,8 +74056,14 @@
       <c r="AJ611">
         <v>1</v>
       </c>
+      <c r="AK611">
+        <v>1</v>
+      </c>
+      <c r="AL611">
+        <v>1</v>
+      </c>
     </row>
-    <row r="612" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>973</v>
       </c>
@@ -71768,8 +74175,11 @@
       <c r="AK612">
         <v>1</v>
       </c>
+      <c r="AL612">
+        <v>1</v>
+      </c>
     </row>
-    <row r="613" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>90</v>
       </c>
@@ -71881,8 +74291,11 @@
       <c r="AK613">
         <v>1</v>
       </c>
+      <c r="AL613">
+        <v>1</v>
+      </c>
     </row>
-    <row r="614" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>703</v>
       </c>
@@ -71994,8 +74407,11 @@
       <c r="AK614">
         <v>1</v>
       </c>
+      <c r="AL614">
+        <v>1</v>
+      </c>
     </row>
-    <row r="615" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>627</v>
       </c>
@@ -72107,8 +74523,11 @@
       <c r="AK615">
         <v>1</v>
       </c>
+      <c r="AL615">
+        <v>1</v>
+      </c>
     </row>
-    <row r="616" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>646</v>
       </c>
@@ -72217,8 +74636,11 @@
       <c r="AJ616">
         <v>1</v>
       </c>
+      <c r="AK616">
+        <v>1</v>
+      </c>
     </row>
-    <row r="617" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>379</v>
       </c>
@@ -72330,8 +74752,11 @@
       <c r="AK617">
         <v>0</v>
       </c>
+      <c r="AL617">
+        <v>0</v>
+      </c>
     </row>
-    <row r="618" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>980</v>
       </c>
@@ -72443,8 +74868,11 @@
       <c r="AK618">
         <v>1</v>
       </c>
+      <c r="AL618">
+        <v>1</v>
+      </c>
     </row>
-    <row r="619" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>90</v>
       </c>
@@ -72556,8 +74984,11 @@
       <c r="AK619">
         <v>1</v>
       </c>
+      <c r="AL619">
+        <v>1</v>
+      </c>
     </row>
-    <row r="620" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>471</v>
       </c>
@@ -72669,8 +75100,11 @@
       <c r="AK620">
         <v>0</v>
       </c>
+      <c r="AL620">
+        <v>0</v>
+      </c>
     </row>
-    <row r="621" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B621" t="s">
         <v>983</v>
       </c>
@@ -72776,8 +75210,14 @@
       <c r="AJ621">
         <v>1</v>
       </c>
+      <c r="AK621">
+        <v>1</v>
+      </c>
+      <c r="AL621">
+        <v>1</v>
+      </c>
     </row>
-    <row r="622" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>383</v>
       </c>
@@ -72886,8 +75326,14 @@
       <c r="AJ622">
         <v>1</v>
       </c>
+      <c r="AK622">
+        <v>1</v>
+      </c>
+      <c r="AL622">
+        <v>1</v>
+      </c>
     </row>
-    <row r="623" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>164</v>
       </c>
@@ -72996,8 +75442,14 @@
       <c r="AJ623">
         <v>1</v>
       </c>
+      <c r="AK623">
+        <v>1</v>
+      </c>
+      <c r="AL623">
+        <v>0</v>
+      </c>
     </row>
-    <row r="624" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>451</v>
       </c>
@@ -73109,8 +75561,11 @@
       <c r="AK624">
         <v>1</v>
       </c>
+      <c r="AL624">
+        <v>1</v>
+      </c>
     </row>
-    <row r="625" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>508</v>
       </c>
@@ -73222,8 +75677,11 @@
       <c r="AK625">
         <v>1</v>
       </c>
+      <c r="AL625">
+        <v>1</v>
+      </c>
     </row>
-    <row r="626" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>262</v>
       </c>
@@ -73335,8 +75793,11 @@
       <c r="AK626">
         <v>1</v>
       </c>
+      <c r="AL626">
+        <v>1</v>
+      </c>
     </row>
-    <row r="627" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>58</v>
       </c>
@@ -73445,8 +75906,11 @@
       <c r="AJ627">
         <v>0</v>
       </c>
+      <c r="AK627">
+        <v>0</v>
+      </c>
     </row>
-    <row r="628" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>156</v>
       </c>
@@ -73558,8 +76022,11 @@
       <c r="AK628">
         <v>1</v>
       </c>
+      <c r="AL628">
+        <v>1</v>
+      </c>
     </row>
-    <row r="629" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>258</v>
       </c>
@@ -73671,8 +76138,11 @@
       <c r="AK629">
         <v>1</v>
       </c>
+      <c r="AL629">
+        <v>1</v>
+      </c>
     </row>
-    <row r="630" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>991</v>
       </c>
@@ -73781,8 +76251,14 @@
       <c r="AJ630">
         <v>1</v>
       </c>
+      <c r="AK630">
+        <v>1</v>
+      </c>
+      <c r="AL630">
+        <v>1</v>
+      </c>
     </row>
-    <row r="631" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>993</v>
       </c>
@@ -73891,8 +76367,14 @@
       <c r="AJ631">
         <v>1</v>
       </c>
+      <c r="AK631">
+        <v>1</v>
+      </c>
+      <c r="AL631">
+        <v>1</v>
+      </c>
     </row>
-    <row r="632" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>145</v>
       </c>
@@ -74004,8 +76486,11 @@
       <c r="AK632">
         <v>1</v>
       </c>
+      <c r="AL632">
+        <v>1</v>
+      </c>
     </row>
-    <row r="633" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B633" t="s">
         <v>996</v>
       </c>
@@ -74111,8 +76596,14 @@
       <c r="AJ633">
         <v>1</v>
       </c>
+      <c r="AK633">
+        <v>1</v>
+      </c>
+      <c r="AL633">
+        <v>1</v>
+      </c>
     </row>
-    <row r="634" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>997</v>
       </c>
@@ -74221,8 +76712,14 @@
       <c r="AJ634">
         <v>1</v>
       </c>
+      <c r="AK634">
+        <v>1</v>
+      </c>
+      <c r="AL634">
+        <v>1</v>
+      </c>
     </row>
-    <row r="635" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>999</v>
       </c>
@@ -74331,8 +76828,11 @@
       <c r="AJ635">
         <v>1</v>
       </c>
+      <c r="AK635">
+        <v>1</v>
+      </c>
     </row>
-    <row r="636" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>90</v>
       </c>
@@ -74444,8 +76944,11 @@
       <c r="AK636">
         <v>1</v>
       </c>
+      <c r="AL636">
+        <v>1</v>
+      </c>
     </row>
-    <row r="637" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>1002</v>
       </c>
@@ -74554,8 +77057,14 @@
       <c r="AJ637">
         <v>1</v>
       </c>
+      <c r="AK637">
+        <v>1</v>
+      </c>
+      <c r="AL637">
+        <v>1</v>
+      </c>
     </row>
-    <row r="638" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>136</v>
       </c>
@@ -74667,8 +77176,11 @@
       <c r="AK638">
         <v>1</v>
       </c>
+      <c r="AL638">
+        <v>1</v>
+      </c>
     </row>
-    <row r="639" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B639" t="s">
         <v>1005</v>
       </c>
@@ -74777,8 +77289,11 @@
       <c r="AK639">
         <v>1</v>
       </c>
+      <c r="AL639">
+        <v>1</v>
+      </c>
     </row>
-    <row r="640" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>1006</v>
       </c>
@@ -74887,8 +77402,14 @@
       <c r="AJ640">
         <v>1</v>
       </c>
+      <c r="AK640">
+        <v>1</v>
+      </c>
+      <c r="AL640">
+        <v>1</v>
+      </c>
     </row>
-    <row r="641" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>1008</v>
       </c>
@@ -75000,8 +77521,11 @@
       <c r="AK641">
         <v>1</v>
       </c>
+      <c r="AL641">
+        <v>1</v>
+      </c>
     </row>
-    <row r="642" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>1010</v>
       </c>
@@ -75113,8 +77637,11 @@
       <c r="AK642">
         <v>1</v>
       </c>
+      <c r="AL642">
+        <v>1</v>
+      </c>
     </row>
-    <row r="643" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>1012</v>
       </c>
@@ -75223,8 +77750,14 @@
       <c r="AJ643">
         <v>1</v>
       </c>
+      <c r="AK643">
+        <v>1</v>
+      </c>
+      <c r="AL643">
+        <v>1</v>
+      </c>
     </row>
-    <row r="644" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>1014</v>
       </c>
@@ -75334,6 +77867,9 @@
         <v>1</v>
       </c>
       <c r="AK644">
+        <v>1</v>
+      </c>
+      <c r="AL644">
         <v>1</v>
       </c>
     </row>
